--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CDB05-88AC-45F3-987A-04FC9D81A3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F54DE8-A513-45AD-A578-64D2965ACBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>description</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>{Project(cond:"{province: {_nin: [\"江苏省\",\"浙江省\"]}}") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") { id location commissioning_date state power_station Has_Device_Inverter{ site pr production name type full_generation_hours} }}</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -884,6 +890,42 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F54DE8-A513-45AD-A578-64D2965ACBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFC899-BB59-4860-975C-30B4653569CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>description</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") { id location commissioning_date state power_station Has_Device_Inverter{ site pr production name type full_generation_hours} }}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {business_mgr business_unit charge_frequency city province district class_level classification_level credit_amount detail_address discount_ratio expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture no status name risk_mgr rent_type invert_Customer(cond:"",order:"") { actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person_id legal_person major_class middle_class office_address project province registered_address small_class} Restricted_By_Contract(cond:"",order:"") {accumulated_amount charge_frequency contract_amount customer grant_loan_frequency id lease_balance lease_end_time lease_num lease_start_time lease_unit leasing_principal make_loan_day overdue_amount overdue_days overdue_interest overdue_principal payment_method project} Refer_To_Lease_Group(cond:"",order:"") {asset_type count discount_ratio id lease_net_val lease_type lease_type_gb lease_type_yj nominal_cost project transfer_price unit_price}} }</t>
   </si>
 </sst>
 </file>
@@ -730,7 +733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -926,6 +929,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044p8f\Downloads\test-data-xls\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFC899-BB59-4860-975C-30B4653569CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E96C7-11BB-4769-90DA-70055B40AF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
+    <sheet name="queryJinzuByGraphQL" sheetId="4" r:id="rId3"/>
+    <sheet name="queryJinzuAndCompareByGraphQL" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>description</t>
   </si>
@@ -128,6 +130,879 @@
   </si>
   <si>
     <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {business_mgr business_unit charge_frequency city province district class_level classification_level credit_amount detail_address discount_ratio expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture no status name risk_mgr rent_type invert_Customer(cond:"",order:"") { actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person_id legal_person major_class middle_class office_address project province registered_address small_class} Restricted_By_Contract(cond:"",order:"") {accumulated_amount charge_frequency contract_amount customer grant_loan_frequency id lease_balance lease_end_time lease_num lease_start_time lease_unit leasing_principal make_loan_day overdue_amount overdue_days overdue_interest overdue_principal payment_method project} Refer_To_Lease_Group(cond:"",order:"") {asset_type count discount_ratio id lease_net_val lease_type lease_type_gb lease_type_yj nominal_cost project transfer_price unit_price}} }</t>
+  </si>
+  <si>
+    <t>jsonpath</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-1</t>
+  </si>
+  <si>
+    <t>{
+	Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"")
+	{
+	  business_mgr
+	  business_unit
+	  charge_frequency
+	  city
+	  province
+	  district
+	  class_level
+	  classification_level
+	  credit_amount
+	  detail_address
+	  discount_ratio
+	  expire_date
+	  guarantee_type
+	  id
+	  is_manufacture_buy_back
+	  is_manufacture_leasing
+	  manufacture
+	  no
+	  status
+	  name
+	  risk_mgr
+	  rent_type
+	  invert_Customer(cond:"",order:"")
+	  {
+		actual_controller
+		category
+		cid
+		city
+		cname
+		contact
+		contact_detail
+		ctype
+		district
+		enterprise_size
+		group
+		holding_type
+		id
+		is_connected_tx
+		is_gov_fin_customer
+		is_group_customer
+		legal_person_id
+		legal_person
+		major_class
+		middle_class
+		office_address
+		project
+		province
+		registered_address
+		small_class
+	  }
+	Restricted_By_Contract(cond:"",order:"")
+	{
+	  accumulated_amount
+	  charge_frequency
+	  contract_amount
+	  customer
+	  grant_loan_frequency
+	  id
+	  lease_balance
+	  lease_end_time
+	  lease_num
+	  lease_start_time
+	  lease_unit
+	  leasing_principal
+	  make_loan_day
+	  overdue_amount
+	  overdue_days
+	  overdue_interest
+	  overdue_principal
+	  payment_method
+	  project
+	}
+	Refer_To_Lease_Group(cond:"",order:"")
+	{
+	  asset_type
+	  count
+	  discount_ratio
+	  id
+	  lease_net_val
+	  lease_type
+	  lease_type_gb
+	  lease_type_yj
+	  nominal_cost
+	  project
+	  transfer_price
+	  unit_price
+	}
+	} 
+  }</t>
+  </si>
+  <si>
+    <t>data.Project</t>
+  </si>
+  <si>
+    <t>AllProjectGraphqlSchema.JSON</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-2</t>
+  </si>
+  <si>
+    <t>{
+	Site(cond:"{id:{_eq:\"P000000666\"}}",order:""){ 
+		id
+		location
+		commissioning_date
+		state
+		power_station
+		Has_Device_Inverter{
+		site
+		pr
+		production
+		name
+		type
+		full_generation_hours}
+	}
+}</t>
+  </si>
+  <si>
+    <t>data.Site</t>
+  </si>
+  <si>
+    <t>MixSourceGraphqlSchema.JSON</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100000,
+    "message": "Successfully",
+    "data": {
+        "Lease": [
+            {
+                "lease_type_gb": "其他电力工业专用设备",
+                "lending": "P000000666",
+                "lposition": "河南省安阳市安阳县马家乡北齐村",
+                "invoice_no": "12345678",
+                "project": "33",
+                "lease_type_yj": "电力设备",
+                "brand_name": "中利新能源",
+                "unit_price": 0,
+                "serial_num": null,
+                "discount_ratio": 0.513157894609903,
+                "transfer_price": 50000000,
+                "lease_net_val": 97435897.46,
+                "nominal_cost": 102564102,
+                "supplier": "瑞龙电气厂",
+                "asset_type": "动产",
+                "name": "河南安阳中晖",
+                "lease_type": "2",
+                "position": "河南省安阳市安阳县马家乡北齐村",
+                "id": "666",
+                "purchase_time": "2018-07-13T12:00:00",
+                "status": "online",
+                "lease_group": "33",
+                "product_model": null,
+                "invert_Lease_Group": {
+                    "lease_net_val": 97435897.46,
+                    "transfer_price": 50000000,
+                    "lease_type_gb": "其他电力工业专用设备",
+                    "nominal_cost": 1000,
+                    "count": 1,
+                    "asset_type": "动产",
+                    "project": "33",
+                    "lease_type_yj": "电力设备",
+                    "id": "33",
+                    "lease_type": "2",
+                    "unit_price": 102564102,
+                    "discount_ratio": 0.513157894609903,
+                    "invert_Project": {
+                        "no": "20180651",
+                        "rent_type": "融资租赁/回租",
+                        "is_manufacture_buy_back": false,
+                        "classification_level": "正常",
+                        "city": "安阳市",
+                        "detail_address": null,
+                        "charge_frequency": 3,
+                        "credit_amount": 50000000,
+                        "risk_mgr": "朱金龙",
+                        "is_manufacture_leasing": false,
+                        "business_unit": "业务三部",
+                        "discount_ratio": 0.513157894609903,
+                        "class_level": "正常",
+                        "manufacture": "瑞龙电气厂",
+                        "business_mgr": "沈忱宜",
+                        "expire_date": null,
+                        "province": "河南省",
+                        "district": "安阳县",
+                        "name": "安阳县中晖光伏发电有限公司集中式光伏电站回租1期",
+                        "guarantee_type": "质押",
+                        "id": "33",
+                        "status": "online",
+                        "invert_Customer": {
+                            "registered_address": "河南省安阳市安阳县马家乡北齐村",
+                            "city": "安阳市",
+                            "major_class": "电力、热力生产和供应业",
+                            "cname": "安阳县中晖光伏发电有限公司",
+                            "enterprise_size": "微型",
+                            "project": "33",
+                            "is_connected_tx": true,
+                            "legal_person_id": "412328198306074537",
+                            "small_class": "太阳能发电",
+                            "province": "河南省",
+                            "is_gov_fin_customer": false,
+                            "contact": "陶珂珂",
+                            "id": "28",
+                            "group": "江苏中利集团股份有限公司",
+                            "legal_person": "王庆杰",
+                            "contact_detail": "15851585618",
+                            "actual_controller": "王柏兴",
+                            "office_address": "河南省安阳市安阳县马家乡北齐村",
+                            "ctype": "企业法人",
+                            "district": "安阳县",
+                            "is_group_customer": true,
+                            "middle_class": "电力生产",
+                            "category": "电力、热力、燃气及水的生产和供应业",
+                            "cid": "91410522MA3X5R1H97",
+                            "holding_type": "私人控股企业"
+                        }
+                    },
+                    "Refer_To_Power_Station_Properties": {
+                        "avg_annual_eq_hours": 1115,
+                        "lease_group": "33",
+                        "ps_type": "光伏电站",
+                        "structure": "集中式",
+                        "capacity": 20.0
+                    }
+                },
+                "Refer_To_Power_Station": {
+                    "id": "P000000666",
+                    "Compose_Of_Site": [
+                        {
+                            "avg_annual_eq_hours": null,
+                            "avg_irradiance": null,
+                            "capacity": 20.0,
+                            "city": null,
+                            "commissioning_date": 1582175527907,
+                            "grid_inject_production": null,
+                            "id": "P000000666",
+                            "irradiance": null,
+                            "location": "河南省安阳市安阳县马家乡北齐村",
+                            "name": null,
+                            "power_station": "P000000666",
+                            "state": "online",
+                            "sys_engaged_date": null,
+                            "type": null,
+                            "voltage_degree": null,
+                            "Generate_Site_Report": [
+                                {
+                                    "energy_loss": null,
+                                    "pr": 0.63,
+                                    "peak_power_moment": null,
+                                    "production": 46968.65,
+                                    "purchasing_energy": null,
+                                    "sunshin_duration": null,
+                                    "full_generation_hours": null,
+                                    "comprehensive_plant_power_consumption": null,
+                                    "peak_power": null,
+                                    "self_consumed_percent": null,
+                                    "site": "P000000666",
+                                    "revenue": null,
+                                    "report_time": 1582128000000,
+                                    "comprehensive_plant_power_consumption_rate": null,
+                                    "self_consumed_production": null,
+                                    "energy_loss_rate": null,
+                                    "equivalent_hours": 2.43,
+                                    "pr_validity": null
+                                }
+                            ],
+                            "invert_Weather": [
+                                {
+                                    "max_temperature": null,
+                                    "update_time": 1582128000000,
+                                    "site": "P000000666",
+                                    "rainfall": null,
+                                    "main_weather_station": null,
+                                    "avg_temperature": null,
+                                    "description": "Sunny",
+                                    "min_temperature": null
+                                },
+                                {
+                                    "max_temperature": null,
+                                    "update_time": 1582387200000,
+                                    "site": "P000000666",
+                                    "rainfall": null,
+                                    "main_weather_station": null,
+                                    "avg_temperature": null,
+                                    "description": "Sunny",
+                                    "min_temperature": null
+                                },
+                                {
+                                    "max_temperature": null,
+                                    "update_time": 1582214400000,
+                                    "site": "P000000666",
+                                    "rainfall": null,
+                                    "main_weather_station": null,
+                                    "avg_temperature": null,
+                                    "description": "Sunny",
+                                    "min_temperature": null
+                                },
+                                {
+                                    "max_temperature": null,
+                                    "update_time": 1582300800000,
+                                    "site": "P000000666",
+                                    "rainfall": null,
+                                    "main_weather_station": null,
+                                    "avg_temperature": null,
+                                    "description": "Sunny",
+                                    "min_temperature": null
+                                }
+                            ],
+                            "Involve_Device_Alarm_Event": [
+                                {
+                                    "alarm_location": null,
+                                    "update_time": 1568869200000,
+                                    "site": "P000000666",
+                                    "alarm_handle_status": "1",
+                                    "alarm_template": "1",
+                                    "occurring_time": 1568822400000,
+                                    "event_name": null,
+                                    "id": "21",
+                                    "update_by": "钱志良",
+                                    "device": null,
+                                    "confirm_time": null
+                                }
+                            ]
+                        }
+                    ]
+                }
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>data.Lease</t>
+  </si>
+  <si>
+    <t>{Lease(
+      cond:"{id:{_eq:666}}",
+      order:"")
+       {
+       lease_type_gb
+       lending
+       lposition
+       invoice_no
+       project
+       lease_type_yj
+       brand_name
+       unit_price
+       serial_num
+       discount_ratio
+       transfer_price
+       lease_net_val
+       nominal_cost
+       supplier
+       asset_type
+       name
+       lease_type
+       position
+       id
+       purchase_time
+       status
+       lease_group
+       product_model
+       invert_Lease_Group(
+       cond:"",
+       order:"")
+        {
+        lease_net_val
+        transfer_price
+        lease_type_gb
+        nominal_cost
+        count
+        asset_type
+        project
+        lease_type_yj
+        id
+        lease_type
+        unit_price
+        discount_ratio
+        invert_Project(
+        cond:"",
+        order:"")
+         {
+         no
+         rent_type
+         is_manufacture_buy_back
+         classification_level
+         city
+         detail_address
+         charge_frequency
+         credit_amount
+         risk_mgr
+         is_manufacture_leasing
+         business_unit
+         discount_ratio
+         class_level
+         manufacture
+         business_mgr
+         expire_date
+         province
+         district
+         name
+         guarantee_type
+         id
+         status
+         invert_Customer(
+         cond:"",
+         order:"")
+          {
+          registered_address
+          city
+          major_class
+          cname
+          enterprise_size
+          project
+          is_connected_tx
+          legal_person_id
+          small_class
+          province
+          is_gov_fin_customer
+          contact
+          id
+          group
+          legal_person
+          contact_detail
+          actual_controller
+          office_address
+          ctype
+          district
+          is_group_customer
+          middle_class
+          category
+          cid
+          holding_type
+         }
+        }
+        Refer_To_Power_Station_Properties(
+        cond:"",
+        order:"")
+         {
+         avg_annual_eq_hours
+         lease_group
+         ps_type
+         structure
+         capacity
+        }
+       }
+       Refer_To_Power_Station(
+       cond:"",
+       order:"")
+        {
+        id
+        Compose_Of_Site(
+        cond:"",
+        order:"")
+         {
+         avg_annual_eq_hours
+         avg_irradiance
+         capacity
+         city
+         commissioning_date
+         grid_inject_production
+         id
+         irradiance
+         location
+         name
+         power_station
+         state
+         sys_engaged_date
+         type
+         voltage_degree
+         Generate_Site_Report(
+         cond:"{report_time:{_eq:\"1582128000000\"}}",
+         order:"")
+          {
+          energy_loss
+          pr
+          peak_power_moment
+          production
+          purchasing_energy
+          sunshin_duration
+          full_generation_hours
+          comprehensive_plant_power_consumption
+          peak_power
+          self_consumed_percent
+          site
+          revenue
+          report_time
+          comprehensive_plant_power_consumption_rate
+          self_consumed_production
+          energy_loss_rate
+          equivalent_hours
+          pr_validity
+         }
+         invert_Weather(
+         cond:"",
+         order:"")
+          {
+          max_temperature
+          update_time
+          site
+          rainfall
+          main_weather_station
+          avg_temperature
+          description
+          min_temperature
+         }
+         Involve_Device_Alarm_Event(
+         cond:"",
+         order:"")
+          {
+          alarm_location
+          update_time
+          site
+          alarm_handle_status
+          alarm_template
+          occurring_time
+          event_name
+          id
+          update_by
+          device
+          confirm_time
+         }
+        }
+       }
+      }}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-4-2</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100000,
+    "message": "Successfully",
+    "data": {
+        "Lease": [
+            {
+                "lease_type_gb": "其他电力工业专用设备",
+                "lending": "P000000666",
+                "lposition": "河南省安阳市安阳县马家乡北齐村",
+                "invoice_no": "12345678",
+                "project": "33",
+                "lease_type_yj": "电力设备",
+                "brand_name": "中利新能源",
+                "unit_price": 0.0,
+                "serial_num": null,
+                "discount_ratio": 0.513157894609903,
+                "transfer_price": 50000000,
+                "lease_net_val": 97435897.46,
+                "nominal_cost": 102564102,
+                "supplier": "瑞龙电气厂",
+                "asset_type": "动产",
+                "name": "河南安阳中晖",
+                "lease_type": "2",
+                "position": "河南省安阳市安阳县马家乡北齐村",
+                "id": "666",
+                "purchase_time": "2018-07-13T12:00:00",
+                "status": "online",
+                "lease_group": "33",
+                "product_model": null,
+                "Refer_To_Power_Station": {
+                    "id": "P000000666",
+                    "Compose_Of_Site": [
+                        {
+                            "avg_annual_eq_hours": null,
+                            "avg_irradiance": null,
+                            "capacity": 20.0,
+                            "city": null,
+                            "commissioning_date": 1582175527907,
+                            "grid_inject_production": null,
+                            "id": "P000000666",
+                            "irradiance": null,
+                            "location": "河南省安阳市安阳县马家乡北齐村",
+                            "name": null,
+                            "power_station": "P000000666",
+                            "state": "online",
+                            "sys_engaged_date": null,
+                            "type": null,
+                            "voltage_degree": null
+                        }
+                    ]
+                }
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>{Lease(
+      cond:"{project:{_eq:33}}",
+      order:"")
+      {
+      lease_type_gb
+      lending
+      lposition
+      invoice_no
+      project
+      lease_type_yj
+      brand_name
+      unit_price
+      serial_num
+      discount_ratio
+      transfer_price
+      lease_net_val
+      nominal_cost
+      supplier
+      asset_type
+      name
+      lease_type
+      position
+      id
+      purchase_time
+      status
+      lease_group
+      product_model
+      Refer_To_Power_Station(
+      cond:"",
+      order:"")
+      {
+      id
+      Compose_Of_Site(
+      cond:"",
+      order:"")
+      {
+      avg_annual_eq_hours
+      avg_irradiance
+      capacity
+      city
+      commissioning_date
+      grid_inject_production
+      id
+      irradiance
+      location
+      name
+      power_station
+      state
+      sys_engaged_date
+      type
+      voltage_degree
+      }
+      }
+      }}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-4-1</t>
+  </si>
+  <si>
+    <t>{
+    "code": 100000,
+    "message": "Successfully",
+    "data": {
+        "Contract": [
+            {
+                "accumulated_amount": 50000000,
+                "charge_frequency": 3,
+                "contract_amount": 50000000,
+                "customer": "28",
+                "grant_loan_frequency": "一次投放",
+                "id": "苏州租赁(2018)回字第1810099号",
+                "lease_balance": 44168744.88,
+                "lease_end_time": "2026-07-15 00:00:00",
+                "lease_num": 96.0,
+                "lease_start_time": "2018-07-25 00:00:00",
+                "lease_unit": null,
+                "leasing_principal": 50000000,
+                "make_loan_day": "2018-07-25 00:00:00",
+                "overdue_amount": 0.0,
+                "overdue_days": 0,
+                "overdue_interest": 0.0,
+                "overdue_principal": 0.0,
+                "payment_method": "等额本息",
+                "project": "33",
+                "invert_Project": {
+                    "business_mgr": "沈忱宜",
+                    "business_unit": "业务三部",
+                    "charge_frequency": 3,
+                    "city": "安阳市",
+                    "province": "河南省",
+                    "district": "安阳县",
+                    "class_level": "正常",
+                    "classification_level": "正常",
+                    "credit_amount": 50000000,
+                    "detail_address": null,
+                    "discount_ratio": 0.513157894609903,
+                    "expire_date": null,
+                    "guarantee_type": "质押",
+                    "id": "33",
+                    "is_manufacture_buy_back": false,
+                    "is_manufacture_leasing": false,
+                    "manufacture": "瑞龙电气厂",
+                    "no": "20180651",
+                    "status": "online",
+                    "name": "安阳县中晖光伏发电有限公司集中式光伏电站回租1期",
+                    "risk_mgr": "朱金龙",
+                    "rent_type": "融资租赁/回租",
+                    "Refer_To_Lease_Group": {
+                        "asset_type": "动产",
+                        "count": 1,
+                        "discount_ratio": 0.513157894609903,
+                        "id": "33",
+                        "lease_net_val": 97435897.46,
+                        "lease_type": "2",
+                        "lease_type_gb": "其他电力工业专用设备",
+                        "lease_type_yj": "电力设备",
+                        "nominal_cost": 1000.0,
+                        "project": "33",
+                        "transfer_price": 50000000,
+                        "unit_price": 102564102,
+                        "Refer_To_Power_Station_Properties": {
+                            "ps_type": "光伏电站",
+                            "structure": "集中式",
+                            "avg_annual_eq_hours": 1115.0,
+                            "capacity": 20.0
+                        }
+                    }
+                },
+                "invert_Customer": {
+                    "actual_controller": "王柏兴",
+                    "category": "电力、热力、燃气及水的生产和供应业",
+                    "cid": "91410522MA3X5R1H97",
+                    "city": "安阳市",
+                    "cname": "安阳县中晖光伏发电有限公司",
+                    "contact": "陶珂珂",
+                    "contact_detail": "15851585618",
+                    "ctype": "企业法人",
+                    "district": "安阳县",
+                    "enterprise_size": "微型",
+                    "group": "江苏中利集团股份有限公司",
+                    "holding_type": "私人控股企业",
+                    "id": "28",
+                    "is_connected_tx": true,
+                    "is_gov_fin_customer": false,
+                    "is_group_customer": true,
+                    "legal_person_id": "412328198306074537",
+                    "legal_person": "王庆杰",
+                    "major_class": "电力、热力生产和供应业",
+                    "middle_class": "电力生产",
+                    "office_address": "河南省安阳市安阳县马家乡北齐村",
+                    "project": "33",
+                    "province": "河南省",
+                    "registered_address": "河南省安阳市安阳县马家乡北齐村",
+                    "small_class": "太阳能发电"
+                }
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>data.Contract</t>
+  </si>
+  <si>
+    <t>{
+  Contract(cond:"{project:{_eq:33}}",order:"")
+   {
+   accumulated_amount
+   charge_frequency
+   contract_amount
+   customer
+   grant_loan_frequency
+   id
+   lease_balance
+   lease_end_time
+   lease_num
+   lease_start_time
+   lease_unit
+   leasing_principal
+   make_loan_day
+   overdue_amount
+   overdue_days
+   overdue_interest
+   overdue_principal
+   payment_method
+   project
+   invert_Project(cond:"",order:"")
+	{
+	business_mgr
+	business_unit
+	charge_frequency
+	city
+	province
+	district
+	class_level
+	classification_level
+	credit_amount
+	detail_address
+	discount_ratio
+	expire_date
+	guarantee_type
+	id
+	is_manufacture_buy_back
+	is_manufacture_leasing
+	manufacture
+	no
+	status
+	name
+	risk_mgr
+	rent_type
+	Refer_To_Lease_Group(cond:"",order:"")
+	 {
+	 asset_type
+	 count
+	 discount_ratio
+	 id
+	 lease_net_val
+	 lease_type
+	 lease_type_gb
+	 lease_type_yj
+	 nominal_cost
+	 project
+	 transfer_price
+	 unit_price
+	 Refer_To_Power_Station_Properties(cond:"",order:"")
+	  {
+	  ps_type
+	  structure
+	  avg_annual_eq_hours
+	  capacity
+	 }
+	} 
+   }
+   invert_Customer(cond:"",order:"")
+	{
+	actual_controller
+	category
+	cid
+	city
+	cname
+	contact
+	contact_detail
+	ctype
+	district
+	enterprise_size
+	group
+	holding_type
+	id
+	is_connected_tx
+	is_gov_fin_customer
+	is_group_customer
+	legal_person_id
+	legal_person
+	major_class
+	middle_class
+	office_address
+	project
+	province
+	registered_address
+	small_class
+   }
+  } 
+}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-3</t>
+  </si>
+  <si>
+    <t>expectJson</t>
   </si>
 </sst>
 </file>
@@ -197,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -205,6 +1080,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,12 +1373,12 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1"/>
-    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="1"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -739,12 +1620,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6328125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -952,4 +1833,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E04EB2C-43ED-44C5-90D6-0E237E6E900C}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE32107-EEF1-41EA-9AFB-31D4CA354514}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFC899-BB59-4860-975C-30B4653569CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8C70F-D1E6-4653-9548-7F6AE730C8AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,10 @@
     <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
   </si>
   <si>
-    <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") { id location commissioning_date state power_station Has_Device_Inverter{ site pr production name type full_generation_hours} }}</t>
-  </si>
-  <si>
     <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {business_mgr business_unit charge_frequency city province district class_level classification_level credit_amount detail_address discount_ratio expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture no status name risk_mgr rent_type invert_Customer(cond:"",order:"") { actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person_id legal_person major_class middle_class office_address project province registered_address small_class} Restricted_By_Contract(cond:"",order:"") {accumulated_amount charge_frequency contract_amount customer grant_loan_frequency id lease_balance lease_end_time lease_num lease_start_time lease_unit leasing_principal make_loan_day overdue_amount overdue_days overdue_interest overdue_principal payment_method project} Refer_To_Lease_Group(cond:"",order:"") {asset_type count discount_ratio id lease_net_val lease_type lease_type_gb lease_type_yj nominal_cost project transfer_price unit_price}} }</t>
+  </si>
+  <si>
+    <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") { id location commissioning_date state power_station Has_Device_Inverter   { site pr production name type full_generation_hours} }}</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0044p8f\Downloads\test-data-xls\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407E96C7-11BB-4769-90DA-70055B40AF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9941565F-D2FD-4A57-BE8F-89B4F431E6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -85,15 +85,6 @@
   </si>
   <si>
     <t>[Project][business_mgr,risk_mgr,rent_type][{charge_frequency: {_eq: 2}}]</t>
-  </si>
-  <si>
-    <t>[Project][business_mgr,risk_mgr,rent_type][{charge_frequency: {_neq: 2}}]</t>
-  </si>
-  <si>
-    <t>[Project][business_mgr,risk_mgr,rent_type][{charge_frequency: {_in: [2, 3]}}][][]</t>
-  </si>
-  <si>
-    <t>[Project][business_mgr,risk_mgr,rent_type][{charge_frequency: {_nin: [2, 3]}}][][]</t>
   </si>
   <si>
     <t>[Project][][][no asc][1,10]</t>
@@ -1003,6 +994,15 @@
   </si>
   <si>
     <t>expectJson</t>
+  </si>
+  <si>
+    <t>[Project][business_mgr,risk_mgr,rent_type,charge_frequency][{charge_frequency: {_neq: 2}}]</t>
+  </si>
+  <si>
+    <t>[Project][business_mgr,risk_mgr,rent_type,charge_frequency][{charge_frequency: {_in: [2, 3]}}][][]</t>
+  </si>
+  <si>
+    <t>[Project][business_mgr,risk_mgr,rent_type,charge_frequency][{charge_frequency: {_nin: [2, 3]}}][][]</t>
   </si>
 </sst>
 </file>
@@ -1368,17 +1368,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1"/>
-    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1"/>
+    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -1616,16 +1616,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6328125" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,7 +1681,7 @@
         <v>101301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
@@ -1735,7 +1735,7 @@
         <v>101302</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
         <v>200</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>
@@ -1843,12 +1843,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="30.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.6328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1865,59 +1865,59 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="3">
         <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="208" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1934,12 +1934,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="30.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.6328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,21 +1956,21 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
@@ -1979,21 +1979,21 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3">
         <v>100000</v>
@@ -2002,21 +2002,21 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
         <v>100000</v>
@@ -2025,13 +2025,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9941565F-D2FD-4A57-BE8F-89B4F431E6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D76078D-DE34-46E2-9847-E94FF0741558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>description</t>
   </si>
@@ -1003,6 +1003,10 @@
   </si>
   <si>
     <t>[Project][business_mgr,risk_mgr,rent_type,charge_frequency][{charge_frequency: {_nin: [2, 3]}}][][]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Contract(cond:"{project:{_eq:33}}",order:"") { accumulated_amount charge_frequency contract_amount customer grant_loan_frequency id lease_balance lease_end_time lease_num lease_start_time lease_unit leasing_principal make_loan_day overdue_amount overdue_days overdue_interest overdue_principal payment_method project invert_Project(cond:"",order:"") { business_mgr business_unit charge_frequency city province district class_level classification_level credit_amount detail_address discount_ratio expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture no status name risk_mgr rent_type Refer_To_Lease_Group(cond:"",order:"") { asset_type count discount_ratio id lease_net_val lease_type lease_type_gb lease_type_yj nominal_cost project transfer_price unit_price Refer_To_Power_Station_Properties(cond:"",order:"") { ps_type structure avg_annual_eq_hours capacity } }  } invert_Customer(cond:"",order:"") { actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person_id legal_person major_class middle_class office_address project province registered_address small_class } } }
+    </t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -1614,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1649,12 +1653,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -1667,30 +1673,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>200</v>
       </c>
       <c r="E3" s="3">
-        <v>101301</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -1708,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -1723,19 +1733,19 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="3">
-        <v>101302</v>
+        <v>101301</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,8 +1753,8 @@
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="3">
         <v>200</v>
@@ -1761,8 +1771,8 @@
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -1777,19 +1787,19 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100000</v>
+        <v>101302</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1797,8 +1807,8 @@
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
@@ -1815,8 +1825,8 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>
@@ -1825,6 +1835,24 @@
         <v>100000</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D76078D-DE34-46E2-9847-E94FF0741558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD31C06D-A398-4B2C-941D-6D97732370E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>description</t>
   </si>
@@ -1007,6 +1007,12 @@
   <si>
     <t xml:space="preserve">{Contract(cond:"{project:{_eq:33}}",order:"") { accumulated_amount charge_frequency contract_amount customer grant_loan_frequency id lease_balance lease_end_time lease_num lease_start_time lease_unit leasing_principal make_loan_day overdue_amount overdue_days overdue_interest overdue_principal payment_method project invert_Project(cond:"",order:"") { business_mgr business_unit charge_frequency city province district class_level classification_level credit_amount detail_address discount_ratio expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture no status name risk_mgr rent_type Refer_To_Lease_Group(cond:"",order:"") { asset_type count discount_ratio id lease_net_val lease_type lease_type_gb lease_type_yj nominal_cost project transfer_price unit_price Refer_To_Power_Station_Properties(cond:"",order:"") { ps_type structure avg_annual_eq_hours capacity } }  } invert_Customer(cond:"",order:"") { actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person_id legal_person major_class middle_class office_address project province registered_address small_class } } }
     </t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-4</t>
+  </si>
+  <si>
+    <t>{Lease(cond:"{id:{_eq:666}}",order:"") {lease_type_gb lending lposition invoice_no project lease_type_yj brand_name unit_price serial_num discount_ratio transfer_price lease_net_val nominal_cost supplier asset_type name lease_type position id purchase_time status lease_group product_model invert_Lease_Group(cond:"",order:"") { lease_net_val transfer_price lease_type_gb nominal_cost count asset_type project lease_type_yj id lease_type unit_price discount_ratio invert_Project(cond:"",order:"") {no rent_type is_manufacture_buy_back classification_level city detail_address charge_frequency credit_amount risk_mgr is_manufacture_leasing business_unit discount_ratio class_level manufacture business_mgr expire_date province district name guarantee_type id status invert_Customer(cond:"",order:"") {registered_address city major_class cname enterprise_size project is_connected_tx legal_person_id small_class province is_gov_fin_customer contact id group legal_person contact_detail actual_controller office_address ctype district is_group_customer middle_class category cid holding_type } } Refer_To_Power_Station_Properties(cond:"",order:""){avg_annual_eq_hours lease_group ps_type structure capacity} } Refer_To_Power_Station(cond:"",order:""){id Compose_Of_Site(cond:"",order:""){avg_annual_eq_hours avg_irradiance capacity city commissioning_date grid_inject_production id irradiance location name power_station state sys_engaged_date type voltage_degree Generate_Site_Report(cond:"{report_time:{_eq:\"1582128000000\"}}",order:""){energy_loss pr peak_power_moment production purchasing_energy sunshin_duration full_generation_hours comprehensive_plant_power_consumption peak_power self_consumed_percent site revenue report_time comprehensive_plant_power_consumption_rate self_consumed_production energy_loss_rate equivalent_hours pr_validity} invert_Weather(cond:"",order:""){max_temperature update_time site rainfall main_weather_station avg_temperature description min_temperature} Involve_Device_Alarm_Event(cond:"",order:""){alarm_location update_time site alarm_handle_status alarm_template occurring_time event_name id update_by device confirm_time} } } }}</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1712,13 +1718,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -1733,37 +1741,37 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="3">
-        <v>101301</v>
+        <v>100000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>200</v>
       </c>
       <c r="E7" s="3">
-        <v>100000</v>
+        <v>101301</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -1787,37 +1795,37 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>101302</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="3">
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100000</v>
+        <v>101302</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>200</v>
@@ -1843,8 +1851,8 @@
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="3">
         <v>200</v>
@@ -1853,6 +1861,24 @@
         <v>100000</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD31C06D-A398-4B2C-941D-6D97732370E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70126CF2-1FD3-47C3-A5C4-77388E3F1EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>description</t>
   </si>
@@ -1013,6 +1013,30 @@
   </si>
   <si>
     <t>{Lease(cond:"{id:{_eq:666}}",order:"") {lease_type_gb lending lposition invoice_no project lease_type_yj brand_name unit_price serial_num discount_ratio transfer_price lease_net_val nominal_cost supplier asset_type name lease_type position id purchase_time status lease_group product_model invert_Lease_Group(cond:"",order:"") { lease_net_val transfer_price lease_type_gb nominal_cost count asset_type project lease_type_yj id lease_type unit_price discount_ratio invert_Project(cond:"",order:"") {no rent_type is_manufacture_buy_back classification_level city detail_address charge_frequency credit_amount risk_mgr is_manufacture_leasing business_unit discount_ratio class_level manufacture business_mgr expire_date province district name guarantee_type id status invert_Customer(cond:"",order:"") {registered_address city major_class cname enterprise_size project is_connected_tx legal_person_id small_class province is_gov_fin_customer contact id group legal_person contact_detail actual_controller office_address ctype district is_group_customer middle_class category cid holding_type } } Refer_To_Power_Station_Properties(cond:"",order:""){avg_annual_eq_hours lease_group ps_type structure capacity} } Refer_To_Power_Station(cond:"",order:""){id Compose_Of_Site(cond:"",order:""){avg_annual_eq_hours avg_irradiance capacity city commissioning_date grid_inject_production id irradiance location name power_station state sys_engaged_date type voltage_degree Generate_Site_Report(cond:"{report_time:{_eq:\"1582128000000\"}}",order:""){energy_loss pr peak_power_moment production purchasing_energy sunshin_duration full_generation_hours comprehensive_plant_power_consumption peak_power self_consumed_percent site revenue report_time comprehensive_plant_power_consumption_rate self_consumed_production energy_loss_rate equivalent_hours pr_validity} invert_Weather(cond:"",order:""){max_temperature update_time site rainfall main_weather_station avg_temperature description min_temperature} Involve_Device_Alarm_Event(cond:"",order:""){alarm_location update_time site alarm_handle_status alarm_template occurring_time event_name id update_by device confirm_time} } } }}</t>
+  </si>
+  <si>
+    <t>bad request, root is empty string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Invalid Syntax : offending token</t>
+  </si>
+  <si>
+    <t>bad request, root value is not present</t>
+  </si>
+  <si>
+    <t>not_exist_name</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-5-var1</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-5-var2</t>
+  </si>
+  <si>
+    <t>not_exist_name not exist</t>
   </si>
 </sst>
 </file>
@@ -1376,11 +1400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1440,47 +1464,51 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3">
         <v>200</v>
       </c>
       <c r="G3" s="3">
-        <v>100000</v>
+        <v>101301</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3">
         <v>200</v>
       </c>
       <c r="G4" s="3">
-        <v>100000</v>
+        <v>101302</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1490,7 +1518,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -1512,7 +1540,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -1534,7 +1562,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
@@ -1556,7 +1584,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -1578,7 +1606,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
@@ -1600,7 +1628,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -1612,6 +1640,50 @@
         <v>100000</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1626,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70126CF2-1FD3-47C3-A5C4-77388E3F1EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7332D0F-FD0B-42CA-A1B4-6B39F1AC2AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>description</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>query</t>
-  </si>
-  <si>
-    <t>bad request (field name is not present)</t>
-  </si>
-  <si>
-    <t>bad request</t>
   </si>
   <si>
     <t>{Project {business_mgr charge_frequency city province district rent_type}}</t>
@@ -1037,6 +1031,72 @@
   </si>
   <si>
     <t>not_exist_name not exist</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var1</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var2</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var3</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status: {_eq: \"online9999\"}}") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{id:{_eq:\"23\"}}",order:"") {business_mgr id field_not_exist}}</t>
+  </si>
+  <si>
+    <t>Field 'field_not_exist' in type 'Project' is undefined</t>
+  </si>
+  <si>
+    <t>good request, condition can not be satisfied</t>
+  </si>
+  <si>
+    <t>bad request, field name is not present</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var4</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var5</t>
+  </si>
+  <si>
+    <t>bad request, invalid condition</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var6</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{not_exist:{_eq:\"23\"}}",order:"") {business_mgr id}}</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106103 exception: sql execution failed</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{id:{_eq:\"23\"}}",order:"") {invert_Customer{cname}}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var7</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var8</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var9</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-6-var10</t>
+  </si>
+  <si>
+    <t>bad request, sub-entity field name is not present</t>
+  </si>
+  <si>
+    <t>Field 'invalid_field' in type 'Customer' is undefined</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_eq:\"online\"}, classification_level:{_eq:\"正常\"}}",order:"") {invert_Customer{cname invalid_field} id status}}</t>
   </si>
 </sst>
 </file>
@@ -1402,20 +1462,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0ABFD6B-5C24-4B5A-830A-CA8DC1E4BA91}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1"/>
-    <col min="4" max="4" width="36.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="1"/>
+    <col min="1" max="2" width="30.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1451,7 +1511,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>200</v>
@@ -1463,19 +1523,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3">
         <v>200</v>
@@ -1484,22 +1544,22 @@
         <v>101301</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3">
         <v>200</v>
@@ -1508,20 +1568,20 @@
         <v>101302</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
@@ -1533,17 +1593,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3">
         <v>200</v>
@@ -1555,17 +1615,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3">
         <v>200</v>
@@ -1577,17 +1637,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -1599,17 +1659,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -1621,17 +1681,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -1643,17 +1703,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3">
         <v>200</v>
@@ -1665,17 +1725,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -1696,21 +1756,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6328125" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="2" width="30.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1730,15 +1790,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -1750,15 +1810,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3">
         <v>200</v>
@@ -1770,36 +1830,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="3">
         <v>200</v>
       </c>
@@ -1810,13 +1870,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
@@ -1828,130 +1890,244 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>200</v>
       </c>
       <c r="E7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>101301</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101302</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
-        <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3">
-        <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>101302</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3">
-        <v>200</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3">
-        <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1969,15 +2145,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6328125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.6328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1991,59 +2167,59 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="3">
         <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="208" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2060,15 +2236,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6328125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.6328125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2082,21 +2258,21 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3">
         <v>100000</v>
@@ -2105,21 +2281,21 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
         <v>100000</v>
@@ -2128,21 +2304,21 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>100000</v>
@@ -2151,13 +2327,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7332D0F-FD0B-42CA-A1B4-6B39F1AC2AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B133E97C-6F12-457A-99EA-996C87ABF97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="queryJinzuByGraphQL" sheetId="4" r:id="rId3"/>
-    <sheet name="queryJinzuAndCompareByGraphQL" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>description</t>
   </si>
@@ -117,877 +115,13 @@
     <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {business_mgr business_unit charge_frequency city province district class_level classification_level credit_amount detail_address discount_ratio expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture no status name risk_mgr rent_type invert_Customer(cond:"",order:"") { actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person_id legal_person major_class middle_class office_address project province registered_address small_class} Restricted_By_Contract(cond:"",order:"") {accumulated_amount charge_frequency contract_amount customer grant_loan_frequency id lease_balance lease_end_time lease_num lease_start_time lease_unit leasing_principal make_loan_day overdue_amount overdue_days overdue_interest overdue_principal payment_method project} Refer_To_Lease_Group(cond:"",order:"") {asset_type count discount_ratio id lease_net_val lease_type lease_type_gb lease_type_yj nominal_cost project transfer_price unit_price}} }</t>
   </si>
   <si>
-    <t>jsonpath</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
     <t>JinZu-ApiEngine-Test-1</t>
   </si>
   <si>
-    <t>{
-	Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"")
-	{
-	  business_mgr
-	  business_unit
-	  charge_frequency
-	  city
-	  province
-	  district
-	  class_level
-	  classification_level
-	  credit_amount
-	  detail_address
-	  discount_ratio
-	  expire_date
-	  guarantee_type
-	  id
-	  is_manufacture_buy_back
-	  is_manufacture_leasing
-	  manufacture
-	  no
-	  status
-	  name
-	  risk_mgr
-	  rent_type
-	  invert_Customer(cond:"",order:"")
-	  {
-		actual_controller
-		category
-		cid
-		city
-		cname
-		contact
-		contact_detail
-		ctype
-		district
-		enterprise_size
-		group
-		holding_type
-		id
-		is_connected_tx
-		is_gov_fin_customer
-		is_group_customer
-		legal_person_id
-		legal_person
-		major_class
-		middle_class
-		office_address
-		project
-		province
-		registered_address
-		small_class
-	  }
-	Restricted_By_Contract(cond:"",order:"")
-	{
-	  accumulated_amount
-	  charge_frequency
-	  contract_amount
-	  customer
-	  grant_loan_frequency
-	  id
-	  lease_balance
-	  lease_end_time
-	  lease_num
-	  lease_start_time
-	  lease_unit
-	  leasing_principal
-	  make_loan_day
-	  overdue_amount
-	  overdue_days
-	  overdue_interest
-	  overdue_principal
-	  payment_method
-	  project
-	}
-	Refer_To_Lease_Group(cond:"",order:"")
-	{
-	  asset_type
-	  count
-	  discount_ratio
-	  id
-	  lease_net_val
-	  lease_type
-	  lease_type_gb
-	  lease_type_yj
-	  nominal_cost
-	  project
-	  transfer_price
-	  unit_price
-	}
-	} 
-  }</t>
-  </si>
-  <si>
-    <t>data.Project</t>
-  </si>
-  <si>
-    <t>AllProjectGraphqlSchema.JSON</t>
-  </si>
-  <si>
     <t>JinZu-ApiEngine-Test-2</t>
   </si>
   <si>
-    <t>{
-	Site(cond:"{id:{_eq:\"P000000666\"}}",order:""){ 
-		id
-		location
-		commissioning_date
-		state
-		power_station
-		Has_Device_Inverter{
-		site
-		pr
-		production
-		name
-		type
-		full_generation_hours}
-	}
-}</t>
-  </si>
-  <si>
-    <t>data.Site</t>
-  </si>
-  <si>
-    <t>MixSourceGraphqlSchema.JSON</t>
-  </si>
-  <si>
-    <t>{
-    "code": 100000,
-    "message": "Successfully",
-    "data": {
-        "Lease": [
-            {
-                "lease_type_gb": "其他电力工业专用设备",
-                "lending": "P000000666",
-                "lposition": "河南省安阳市安阳县马家乡北齐村",
-                "invoice_no": "12345678",
-                "project": "33",
-                "lease_type_yj": "电力设备",
-                "brand_name": "中利新能源",
-                "unit_price": 0,
-                "serial_num": null,
-                "discount_ratio": 0.513157894609903,
-                "transfer_price": 50000000,
-                "lease_net_val": 97435897.46,
-                "nominal_cost": 102564102,
-                "supplier": "瑞龙电气厂",
-                "asset_type": "动产",
-                "name": "河南安阳中晖",
-                "lease_type": "2",
-                "position": "河南省安阳市安阳县马家乡北齐村",
-                "id": "666",
-                "purchase_time": "2018-07-13T12:00:00",
-                "status": "online",
-                "lease_group": "33",
-                "product_model": null,
-                "invert_Lease_Group": {
-                    "lease_net_val": 97435897.46,
-                    "transfer_price": 50000000,
-                    "lease_type_gb": "其他电力工业专用设备",
-                    "nominal_cost": 1000,
-                    "count": 1,
-                    "asset_type": "动产",
-                    "project": "33",
-                    "lease_type_yj": "电力设备",
-                    "id": "33",
-                    "lease_type": "2",
-                    "unit_price": 102564102,
-                    "discount_ratio": 0.513157894609903,
-                    "invert_Project": {
-                        "no": "20180651",
-                        "rent_type": "融资租赁/回租",
-                        "is_manufacture_buy_back": false,
-                        "classification_level": "正常",
-                        "city": "安阳市",
-                        "detail_address": null,
-                        "charge_frequency": 3,
-                        "credit_amount": 50000000,
-                        "risk_mgr": "朱金龙",
-                        "is_manufacture_leasing": false,
-                        "business_unit": "业务三部",
-                        "discount_ratio": 0.513157894609903,
-                        "class_level": "正常",
-                        "manufacture": "瑞龙电气厂",
-                        "business_mgr": "沈忱宜",
-                        "expire_date": null,
-                        "province": "河南省",
-                        "district": "安阳县",
-                        "name": "安阳县中晖光伏发电有限公司集中式光伏电站回租1期",
-                        "guarantee_type": "质押",
-                        "id": "33",
-                        "status": "online",
-                        "invert_Customer": {
-                            "registered_address": "河南省安阳市安阳县马家乡北齐村",
-                            "city": "安阳市",
-                            "major_class": "电力、热力生产和供应业",
-                            "cname": "安阳县中晖光伏发电有限公司",
-                            "enterprise_size": "微型",
-                            "project": "33",
-                            "is_connected_tx": true,
-                            "legal_person_id": "412328198306074537",
-                            "small_class": "太阳能发电",
-                            "province": "河南省",
-                            "is_gov_fin_customer": false,
-                            "contact": "陶珂珂",
-                            "id": "28",
-                            "group": "江苏中利集团股份有限公司",
-                            "legal_person": "王庆杰",
-                            "contact_detail": "15851585618",
-                            "actual_controller": "王柏兴",
-                            "office_address": "河南省安阳市安阳县马家乡北齐村",
-                            "ctype": "企业法人",
-                            "district": "安阳县",
-                            "is_group_customer": true,
-                            "middle_class": "电力生产",
-                            "category": "电力、热力、燃气及水的生产和供应业",
-                            "cid": "91410522MA3X5R1H97",
-                            "holding_type": "私人控股企业"
-                        }
-                    },
-                    "Refer_To_Power_Station_Properties": {
-                        "avg_annual_eq_hours": 1115,
-                        "lease_group": "33",
-                        "ps_type": "光伏电站",
-                        "structure": "集中式",
-                        "capacity": 20.0
-                    }
-                },
-                "Refer_To_Power_Station": {
-                    "id": "P000000666",
-                    "Compose_Of_Site": [
-                        {
-                            "avg_annual_eq_hours": null,
-                            "avg_irradiance": null,
-                            "capacity": 20.0,
-                            "city": null,
-                            "commissioning_date": 1582175527907,
-                            "grid_inject_production": null,
-                            "id": "P000000666",
-                            "irradiance": null,
-                            "location": "河南省安阳市安阳县马家乡北齐村",
-                            "name": null,
-                            "power_station": "P000000666",
-                            "state": "online",
-                            "sys_engaged_date": null,
-                            "type": null,
-                            "voltage_degree": null,
-                            "Generate_Site_Report": [
-                                {
-                                    "energy_loss": null,
-                                    "pr": 0.63,
-                                    "peak_power_moment": null,
-                                    "production": 46968.65,
-                                    "purchasing_energy": null,
-                                    "sunshin_duration": null,
-                                    "full_generation_hours": null,
-                                    "comprehensive_plant_power_consumption": null,
-                                    "peak_power": null,
-                                    "self_consumed_percent": null,
-                                    "site": "P000000666",
-                                    "revenue": null,
-                                    "report_time": 1582128000000,
-                                    "comprehensive_plant_power_consumption_rate": null,
-                                    "self_consumed_production": null,
-                                    "energy_loss_rate": null,
-                                    "equivalent_hours": 2.43,
-                                    "pr_validity": null
-                                }
-                            ],
-                            "invert_Weather": [
-                                {
-                                    "max_temperature": null,
-                                    "update_time": 1582128000000,
-                                    "site": "P000000666",
-                                    "rainfall": null,
-                                    "main_weather_station": null,
-                                    "avg_temperature": null,
-                                    "description": "Sunny",
-                                    "min_temperature": null
-                                },
-                                {
-                                    "max_temperature": null,
-                                    "update_time": 1582387200000,
-                                    "site": "P000000666",
-                                    "rainfall": null,
-                                    "main_weather_station": null,
-                                    "avg_temperature": null,
-                                    "description": "Sunny",
-                                    "min_temperature": null
-                                },
-                                {
-                                    "max_temperature": null,
-                                    "update_time": 1582214400000,
-                                    "site": "P000000666",
-                                    "rainfall": null,
-                                    "main_weather_station": null,
-                                    "avg_temperature": null,
-                                    "description": "Sunny",
-                                    "min_temperature": null
-                                },
-                                {
-                                    "max_temperature": null,
-                                    "update_time": 1582300800000,
-                                    "site": "P000000666",
-                                    "rainfall": null,
-                                    "main_weather_station": null,
-                                    "avg_temperature": null,
-                                    "description": "Sunny",
-                                    "min_temperature": null
-                                }
-                            ],
-                            "Involve_Device_Alarm_Event": [
-                                {
-                                    "alarm_location": null,
-                                    "update_time": 1568869200000,
-                                    "site": "P000000666",
-                                    "alarm_handle_status": "1",
-                                    "alarm_template": "1",
-                                    "occurring_time": 1568822400000,
-                                    "event_name": null,
-                                    "id": "21",
-                                    "update_by": "钱志良",
-                                    "device": null,
-                                    "confirm_time": null
-                                }
-                            ]
-                        }
-                    ]
-                }
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>data.Lease</t>
-  </si>
-  <si>
-    <t>{Lease(
-      cond:"{id:{_eq:666}}",
-      order:"")
-       {
-       lease_type_gb
-       lending
-       lposition
-       invoice_no
-       project
-       lease_type_yj
-       brand_name
-       unit_price
-       serial_num
-       discount_ratio
-       transfer_price
-       lease_net_val
-       nominal_cost
-       supplier
-       asset_type
-       name
-       lease_type
-       position
-       id
-       purchase_time
-       status
-       lease_group
-       product_model
-       invert_Lease_Group(
-       cond:"",
-       order:"")
-        {
-        lease_net_val
-        transfer_price
-        lease_type_gb
-        nominal_cost
-        count
-        asset_type
-        project
-        lease_type_yj
-        id
-        lease_type
-        unit_price
-        discount_ratio
-        invert_Project(
-        cond:"",
-        order:"")
-         {
-         no
-         rent_type
-         is_manufacture_buy_back
-         classification_level
-         city
-         detail_address
-         charge_frequency
-         credit_amount
-         risk_mgr
-         is_manufacture_leasing
-         business_unit
-         discount_ratio
-         class_level
-         manufacture
-         business_mgr
-         expire_date
-         province
-         district
-         name
-         guarantee_type
-         id
-         status
-         invert_Customer(
-         cond:"",
-         order:"")
-          {
-          registered_address
-          city
-          major_class
-          cname
-          enterprise_size
-          project
-          is_connected_tx
-          legal_person_id
-          small_class
-          province
-          is_gov_fin_customer
-          contact
-          id
-          group
-          legal_person
-          contact_detail
-          actual_controller
-          office_address
-          ctype
-          district
-          is_group_customer
-          middle_class
-          category
-          cid
-          holding_type
-         }
-        }
-        Refer_To_Power_Station_Properties(
-        cond:"",
-        order:"")
-         {
-         avg_annual_eq_hours
-         lease_group
-         ps_type
-         structure
-         capacity
-        }
-       }
-       Refer_To_Power_Station(
-       cond:"",
-       order:"")
-        {
-        id
-        Compose_Of_Site(
-        cond:"",
-        order:"")
-         {
-         avg_annual_eq_hours
-         avg_irradiance
-         capacity
-         city
-         commissioning_date
-         grid_inject_production
-         id
-         irradiance
-         location
-         name
-         power_station
-         state
-         sys_engaged_date
-         type
-         voltage_degree
-         Generate_Site_Report(
-         cond:"{report_time:{_eq:\"1582128000000\"}}",
-         order:"")
-          {
-          energy_loss
-          pr
-          peak_power_moment
-          production
-          purchasing_energy
-          sunshin_duration
-          full_generation_hours
-          comprehensive_plant_power_consumption
-          peak_power
-          self_consumed_percent
-          site
-          revenue
-          report_time
-          comprehensive_plant_power_consumption_rate
-          self_consumed_production
-          energy_loss_rate
-          equivalent_hours
-          pr_validity
-         }
-         invert_Weather(
-         cond:"",
-         order:"")
-          {
-          max_temperature
-          update_time
-          site
-          rainfall
-          main_weather_station
-          avg_temperature
-          description
-          min_temperature
-         }
-         Involve_Device_Alarm_Event(
-         cond:"",
-         order:"")
-          {
-          alarm_location
-          update_time
-          site
-          alarm_handle_status
-          alarm_template
-          occurring_time
-          event_name
-          id
-          update_by
-          device
-          confirm_time
-         }
-        }
-       }
-      }}</t>
-  </si>
-  <si>
-    <t>JinZu-ApiEngine-Test-4-2</t>
-  </si>
-  <si>
-    <t>{
-    "code": 100000,
-    "message": "Successfully",
-    "data": {
-        "Lease": [
-            {
-                "lease_type_gb": "其他电力工业专用设备",
-                "lending": "P000000666",
-                "lposition": "河南省安阳市安阳县马家乡北齐村",
-                "invoice_no": "12345678",
-                "project": "33",
-                "lease_type_yj": "电力设备",
-                "brand_name": "中利新能源",
-                "unit_price": 0.0,
-                "serial_num": null,
-                "discount_ratio": 0.513157894609903,
-                "transfer_price": 50000000,
-                "lease_net_val": 97435897.46,
-                "nominal_cost": 102564102,
-                "supplier": "瑞龙电气厂",
-                "asset_type": "动产",
-                "name": "河南安阳中晖",
-                "lease_type": "2",
-                "position": "河南省安阳市安阳县马家乡北齐村",
-                "id": "666",
-                "purchase_time": "2018-07-13T12:00:00",
-                "status": "online",
-                "lease_group": "33",
-                "product_model": null,
-                "Refer_To_Power_Station": {
-                    "id": "P000000666",
-                    "Compose_Of_Site": [
-                        {
-                            "avg_annual_eq_hours": null,
-                            "avg_irradiance": null,
-                            "capacity": 20.0,
-                            "city": null,
-                            "commissioning_date": 1582175527907,
-                            "grid_inject_production": null,
-                            "id": "P000000666",
-                            "irradiance": null,
-                            "location": "河南省安阳市安阳县马家乡北齐村",
-                            "name": null,
-                            "power_station": "P000000666",
-                            "state": "online",
-                            "sys_engaged_date": null,
-                            "type": null,
-                            "voltage_degree": null
-                        }
-                    ]
-                }
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>{Lease(
-      cond:"{project:{_eq:33}}",
-      order:"")
-      {
-      lease_type_gb
-      lending
-      lposition
-      invoice_no
-      project
-      lease_type_yj
-      brand_name
-      unit_price
-      serial_num
-      discount_ratio
-      transfer_price
-      lease_net_val
-      nominal_cost
-      supplier
-      asset_type
-      name
-      lease_type
-      position
-      id
-      purchase_time
-      status
-      lease_group
-      product_model
-      Refer_To_Power_Station(
-      cond:"",
-      order:"")
-      {
-      id
-      Compose_Of_Site(
-      cond:"",
-      order:"")
-      {
-      avg_annual_eq_hours
-      avg_irradiance
-      capacity
-      city
-      commissioning_date
-      grid_inject_production
-      id
-      irradiance
-      location
-      name
-      power_station
-      state
-      sys_engaged_date
-      type
-      voltage_degree
-      }
-      }
-      }}</t>
-  </si>
-  <si>
-    <t>JinZu-ApiEngine-Test-4-1</t>
-  </si>
-  <si>
-    <t>{
-    "code": 100000,
-    "message": "Successfully",
-    "data": {
-        "Contract": [
-            {
-                "accumulated_amount": 50000000,
-                "charge_frequency": 3,
-                "contract_amount": 50000000,
-                "customer": "28",
-                "grant_loan_frequency": "一次投放",
-                "id": "苏州租赁(2018)回字第1810099号",
-                "lease_balance": 44168744.88,
-                "lease_end_time": "2026-07-15 00:00:00",
-                "lease_num": 96.0,
-                "lease_start_time": "2018-07-25 00:00:00",
-                "lease_unit": null,
-                "leasing_principal": 50000000,
-                "make_loan_day": "2018-07-25 00:00:00",
-                "overdue_amount": 0.0,
-                "overdue_days": 0,
-                "overdue_interest": 0.0,
-                "overdue_principal": 0.0,
-                "payment_method": "等额本息",
-                "project": "33",
-                "invert_Project": {
-                    "business_mgr": "沈忱宜",
-                    "business_unit": "业务三部",
-                    "charge_frequency": 3,
-                    "city": "安阳市",
-                    "province": "河南省",
-                    "district": "安阳县",
-                    "class_level": "正常",
-                    "classification_level": "正常",
-                    "credit_amount": 50000000,
-                    "detail_address": null,
-                    "discount_ratio": 0.513157894609903,
-                    "expire_date": null,
-                    "guarantee_type": "质押",
-                    "id": "33",
-                    "is_manufacture_buy_back": false,
-                    "is_manufacture_leasing": false,
-                    "manufacture": "瑞龙电气厂",
-                    "no": "20180651",
-                    "status": "online",
-                    "name": "安阳县中晖光伏发电有限公司集中式光伏电站回租1期",
-                    "risk_mgr": "朱金龙",
-                    "rent_type": "融资租赁/回租",
-                    "Refer_To_Lease_Group": {
-                        "asset_type": "动产",
-                        "count": 1,
-                        "discount_ratio": 0.513157894609903,
-                        "id": "33",
-                        "lease_net_val": 97435897.46,
-                        "lease_type": "2",
-                        "lease_type_gb": "其他电力工业专用设备",
-                        "lease_type_yj": "电力设备",
-                        "nominal_cost": 1000.0,
-                        "project": "33",
-                        "transfer_price": 50000000,
-                        "unit_price": 102564102,
-                        "Refer_To_Power_Station_Properties": {
-                            "ps_type": "光伏电站",
-                            "structure": "集中式",
-                            "avg_annual_eq_hours": 1115.0,
-                            "capacity": 20.0
-                        }
-                    }
-                },
-                "invert_Customer": {
-                    "actual_controller": "王柏兴",
-                    "category": "电力、热力、燃气及水的生产和供应业",
-                    "cid": "91410522MA3X5R1H97",
-                    "city": "安阳市",
-                    "cname": "安阳县中晖光伏发电有限公司",
-                    "contact": "陶珂珂",
-                    "contact_detail": "15851585618",
-                    "ctype": "企业法人",
-                    "district": "安阳县",
-                    "enterprise_size": "微型",
-                    "group": "江苏中利集团股份有限公司",
-                    "holding_type": "私人控股企业",
-                    "id": "28",
-                    "is_connected_tx": true,
-                    "is_gov_fin_customer": false,
-                    "is_group_customer": true,
-                    "legal_person_id": "412328198306074537",
-                    "legal_person": "王庆杰",
-                    "major_class": "电力、热力生产和供应业",
-                    "middle_class": "电力生产",
-                    "office_address": "河南省安阳市安阳县马家乡北齐村",
-                    "project": "33",
-                    "province": "河南省",
-                    "registered_address": "河南省安阳市安阳县马家乡北齐村",
-                    "small_class": "太阳能发电"
-                }
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>data.Contract</t>
-  </si>
-  <si>
-    <t>{
-  Contract(cond:"{project:{_eq:33}}",order:"")
-   {
-   accumulated_amount
-   charge_frequency
-   contract_amount
-   customer
-   grant_loan_frequency
-   id
-   lease_balance
-   lease_end_time
-   lease_num
-   lease_start_time
-   lease_unit
-   leasing_principal
-   make_loan_day
-   overdue_amount
-   overdue_days
-   overdue_interest
-   overdue_principal
-   payment_method
-   project
-   invert_Project(cond:"",order:"")
-	{
-	business_mgr
-	business_unit
-	charge_frequency
-	city
-	province
-	district
-	class_level
-	classification_level
-	credit_amount
-	detail_address
-	discount_ratio
-	expire_date
-	guarantee_type
-	id
-	is_manufacture_buy_back
-	is_manufacture_leasing
-	manufacture
-	no
-	status
-	name
-	risk_mgr
-	rent_type
-	Refer_To_Lease_Group(cond:"",order:"")
-	 {
-	 asset_type
-	 count
-	 discount_ratio
-	 id
-	 lease_net_val
-	 lease_type
-	 lease_type_gb
-	 lease_type_yj
-	 nominal_cost
-	 project
-	 transfer_price
-	 unit_price
-	 Refer_To_Power_Station_Properties(cond:"",order:"")
-	  {
-	  ps_type
-	  structure
-	  avg_annual_eq_hours
-	  capacity
-	 }
-	} 
-   }
-   invert_Customer(cond:"",order:"")
-	{
-	actual_controller
-	category
-	cid
-	city
-	cname
-	contact
-	contact_detail
-	ctype
-	district
-	enterprise_size
-	group
-	holding_type
-	id
-	is_connected_tx
-	is_gov_fin_customer
-	is_group_customer
-	legal_person_id
-	legal_person
-	major_class
-	middle_class
-	office_address
-	project
-	province
-	registered_address
-	small_class
-   }
-  } 
-}</t>
-  </si>
-  <si>
     <t>JinZu-ApiEngine-Test-3</t>
-  </si>
-  <si>
-    <t>expectJson</t>
   </si>
   <si>
     <t>[Project][business_mgr,risk_mgr,rent_type,charge_frequency][{charge_frequency: {_neq: 2}}]</t>
@@ -1166,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1175,9 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1525,17 +656,17 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3">
         <v>200</v>
@@ -1544,22 +675,22 @@
         <v>101301</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3">
         <v>200</v>
@@ -1568,7 +699,7 @@
         <v>101302</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1644,7 +775,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
@@ -1666,7 +797,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -1688,7 +819,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -1759,7 +890,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1792,7 +923,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1812,7 +943,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1832,13 +963,13 @@
     </row>
     <row r="4" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3">
         <v>200</v>
@@ -1852,13 +983,13 @@
     </row>
     <row r="5" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -1872,7 +1003,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1892,7 +1023,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1912,13 +1043,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3">
         <v>200</v>
@@ -1932,13 +1063,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>200</v>
@@ -1947,15 +1078,15 @@
         <v>101301</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -1972,10 +1103,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>22</v>
@@ -1992,13 +1123,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3">
         <v>200</v>
@@ -2007,18 +1138,18 @@
         <v>101403</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3">
         <v>200</v>
@@ -2032,7 +1163,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
@@ -2052,7 +1183,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -2072,7 +1203,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -2092,7 +1223,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1</v>
@@ -2112,13 +1243,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3">
         <v>200</v>
@@ -2127,7 +1258,7 @@
         <v>101301</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2135,209 +1266,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E04EB2C-43ED-44C5-90D6-0E237E6E900C}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE32107-EEF1-41EA-9AFB-31D4CA354514}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B133E97C-6F12-457A-99EA-996C87ABF97E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432514E9-F6B8-4FF8-A761-3AABB2BE7742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
   <si>
     <t>description</t>
   </si>
@@ -231,6 +231,150 @@
   </si>
   <si>
     <t>{Project(cond:"{status:{_eq:\"online\"}, classification_level:{_eq:\"正常\"}}",order:"") {invert_Customer{cname invalid_field} id status}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var1</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{charge_frequency:{_eq:3}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var2</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{is_manufacture_buy_back:{_eq:false}}",order:"") {business_mgr business_unit charge_frequency city class_level discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{business_mgr:{_eq:\"胡晓峰\"}}",order:"") {business_mgr business_unit charge_frequency city class_level manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{charge_frequency:{_neq:3}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var4</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var5</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{is_manufacture_buy_back:{_neq:false}}",order:"") {business_mgr business_unit charge_frequency city class_level discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var6</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_neq:\"online\"}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{business_mgr:{_neq:\"胡晓峰\"}}",order:"") {business_mgr business_unit charge_frequency city class_level manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{charge_frequency:{_gte:3}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status: {_gte: \"b\"}}") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var7</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var8</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var9</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var10</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{charge_frequency:{_gt:3}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status: {_gt: \"b\"}}") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{charge_frequency:{_lte:3}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status: {_lte: \"b\"}}") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{charge_frequency:{_lt:3}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var11</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var12</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var13</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var14</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var15</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var16</t>
+  </si>
+  <si>
+    <t>{Project (cond:"{charge_frequency:{_in:[1,2,3]}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project (cond:"{charge_frequency:{_nin:[1,2,3]}}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var17</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var18</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var19</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var20</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var21</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var22</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status: {_lt: \"b\"}}") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project (cond:"{_and: [{business_mgr:{_in:[\"潘云晖\",\"臧佳宝\" ]}},{status:{_in:[\"archived\" ]}}]}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var23</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var24</t>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-Test-7-var25</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_in:[\"online\",\"archived\"]}}",order:"") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{business_mgr:{_in:[\"潘云晖\",\"臧佳宝\"]}}",order:"") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_nin:[\"online\",\"bbbb\"]}}",order:"") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{business_mgr:{_nin:[\"潘云晖\",\"臧佳宝\"]}}",order:"") {business_mgr business_unit charge_frequency city province district credit_amount detail_address discount_ratio expire_date guarantee_type id no status name risk_mgr rent_type}}</t>
+  </si>
+  <si>
+    <t>{Project (cond:"{_or: [{business_mgr:{_in:[\"潘云晖\",\"臧佳宝\"]}},{status:{_in:[\"archived\" ]}}]}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status}}</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{_or: [{business_mgr:{_in:[\"潘云晖\",\"臧佳宝\" ]}},{status:{_in:[\"archived\" ]}}]}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status  invert_Customer (cond:"{id:{_eq:24}}",order:"") {actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person legal_person_id major_class middle_class office_address project province registered_address small_class}}}</t>
   </si>
 </sst>
 </file>
@@ -887,16 +1031,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="6" customWidth="1"/>
     <col min="4" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -1261,6 +1405,486 @@
         <v>66</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3">
+        <v>200</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="3">
+        <v>200</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3">
+        <v>200</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="3">
+        <v>200</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3">
+        <v>200</v>
+      </c>
+      <c r="E38" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3">
+        <v>200</v>
+      </c>
+      <c r="E39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="3">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432514E9-F6B8-4FF8-A761-3AABB2BE7742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153031D7-FC93-4481-A206-3DA244C3EADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
+    <sheet name="getLeaseDetails" sheetId="4" r:id="rId3"/>
+    <sheet name="getLeaseList" sheetId="5" r:id="rId4"/>
+    <sheet name="getProjectDetails" sheetId="6" r:id="rId5"/>
+    <sheet name="getProjectByCondition" sheetId="8" r:id="rId6"/>
+    <sheet name="getSiteDetails" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
   <si>
     <t>description</t>
   </si>
@@ -375,6 +380,455 @@
   </si>
   <si>
     <t>{Project(cond:"{_or: [{business_mgr:{_in:[\"潘云晖\",\"臧佳宝\" ]}},{status:{_in:[\"archived\" ]}}]}",order:"") {business_mgr business_unit charge_frequency city class_level classification_level credit_amount detail_address discount_ratio district expire_date guarantee_type id is_manufacture_buy_back is_manufacture_leasing manufacture name no province rent_type risk_mgr status  invert_Customer (cond:"{id:{_eq:24}}",order:"") {actual_controller category cid city cname contact contact_detail ctype district enterprise_size group holding_type id is_connected_tx is_gov_fin_customer is_group_customer legal_person legal_person_id major_class middle_class office_address project province registered_address small_class}}}</t>
+  </si>
+  <si>
+    <t>jasonTemplate</t>
+  </si>
+  <si>
+    <t>查看某个租赁物的详细信息</t>
+  </si>
+  <si>
+    <t>queryString</t>
+  </si>
+  <si>
+    <t>{Lease(cond:"{id:{_eq:667}}", order:"") {
+	lease_type_gb
+	lending
+	lposition
+	invoice_no
+	project
+	lease_type_yj
+	brand_name
+	unit_price
+	serial_num
+	discount_ratio
+	transfer_price
+	lease_net_val
+	nominal_cost
+	supplier
+	asset_type
+	name
+	lease_type
+	position
+	id
+	purchase_time
+	status
+	lease_group
+	product_model
+	invert_Lease_Group( cond:"", order:"") {
+		lease_net_val
+		transfer_price
+		lease_type_gb
+		nominal_cost
+		count
+		asset_type
+		project
+		lease_type_yj
+		id
+		lease_type
+		unit_price
+		discount_ratio
+		invert_Project( cond:"", order:"") {
+			no
+			rent_type
+			is_manufacture_buy_back
+			classification_level
+			city
+			detail_address
+			charge_frequency
+			credit_amount
+			risk_mgr
+			is_manufacture_leasing
+			business_unit
+			discount_ratio
+			class_level
+			manufacture
+			business_mgr
+			expire_date
+			province
+			district
+			name
+			guarantee_type
+			id
+			status
+			invert_Customer( cond:"", order:"") {
+				registered_address
+				city
+				major_class
+				cname
+				enterprise_size
+				project
+				is_connected_tx
+				legal_person_id
+				small_class
+				province
+				is_gov_fin_customer
+				contact
+				id
+				group
+				legal_person
+				contact_detail
+				actual_controller
+				office_address
+				ctype
+				district
+				is_group_customer
+				middle_class
+				category
+				cid
+				holding_type
+			}
+		}
+		Refer_To_Power_Station_Properties( cond:"", order:"") {
+			avg_annual_eq_hours
+			lease_group
+			ps_type
+			structure
+			capacity
+		}
+	}
+	Refer_To_Power_Station( cond:"", order:"") {
+		id
+		Compose_Of_Site( cond:"", order:"") 
+		{
+			avg_annual_eq_hours
+			avg_irradiance
+			capacity
+			city
+			commissioning_date
+			grid_inject_production
+			id
+			irradiance
+			location
+			name
+			power_station
+			state
+			sys_engaged_date
+			type
+			voltage_degree
+			Generate_Site_Report( cond:"{report_time:{_eq:\"1582128000000\"}}", order:"") {
+				energy_loss
+				pr
+				peak_power_moment
+				production
+				purchasing_energy
+				sunshin_duration
+				full_generation_hours
+				comprehensive_plant_power_consumption
+				peak_power
+				self_consumed_percent
+				site
+				revenue
+				report_time
+				comprehensive_plant_power_consumption_rate
+				self_consumed_production
+				energy_loss_rate
+				equivalent_hours
+				pr_validity
+			}
+			invert_Weather( cond:"", order:"") {
+				max_temperature
+				update_time
+				site
+				rainfall
+				main_weather_station
+				avg_temperature
+				description
+				min_temperature
+			}
+			Involve_Device_Alarm_Event( cond:"", order:"") {
+				alarm_location
+				update_time
+				site
+				alarm_handle_status
+				alarm_template
+				occurring_time
+				event_name
+				id
+				update_by
+				device
+				confirm_time
+			}
+		}
+	}
+}
+}</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForLeaseDetails.JSON</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForLeaseList.JSON</t>
+  </si>
+  <si>
+    <t>{Lease(cond:"{project:{_eq:99}}", order:"") {
+	lease_type_gb
+	lending
+	lposition
+	invoice_no
+	project
+	lease_type_yj
+	brand_name
+	unit_price
+	serial_num
+	discount_ratio
+	transfer_price
+	lease_net_val
+	nominal_cost
+	supplier
+	asset_type
+	name
+	lease_type
+	position
+	id
+	purchase_time
+	status
+	lease_group
+	product_model
+	Refer_To_Power_Station(cond:"", order:"") {
+		id
+		Compose_Of_Site(cond:"", order:"") {
+			avg_annual_eq_hours
+			avg_irradiance
+			capacity
+			city
+			commissioning_date
+			grid_inject_production
+			id
+			irradiance
+			location
+			name
+			power_station
+			state
+			sys_engaged_date
+			type
+			voltage_degree
+		}
+	}
+}}</t>
+  </si>
+  <si>
+    <t>根据project id获取租赁物信息列表</t>
+  </si>
+  <si>
+    <t>获取指定项目的详细信息</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForProjectDetails.JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Contract(cond:"{project:{_eq:99}}", order:"") {
+	accumulated_amount
+	charge_frequency
+	contract_amount
+	customer
+	grant_loan_frequency
+	id
+	lease_balance
+	lease_end_time
+	lease_num
+	lease_start_time
+	lease_unit
+	leasing_principal
+	make_loan_day
+	overdue_amount
+	overdue_days
+	overdue_interest
+	overdue_principal
+	payment_method
+	project
+	invert_Project(cond:"", order:"") {
+		business_mgr
+		business_unit
+		charge_frequency
+		city
+		province
+		district
+		class_level
+		classification_level
+		credit_amount
+		detail_address
+		discount_ratio
+		expire_date
+		guarantee_type
+		id
+		is_manufacture_buy_back
+		is_manufacture_leasing
+		manufacture
+		no
+		status
+		name
+		risk_mgr
+		rent_type
+		Refer_To_Lease_Group(cond:"", order:"") {
+			asset_type
+			count
+			discount_ratio
+			id
+			lease_net_val
+			lease_type
+			lease_type_gb
+			lease_type_yj
+			nominal_cost
+			project
+			transfer_price
+			unit_price
+			Refer_To_Power_Station_Properties(cond:"", order:"") {
+				ps_type
+				structure
+				avg_annual_eq_hours
+				capacity
+			}
+		}
+	}
+	invert_Customer(cond:"", order:"") {
+		actual_controller
+		category
+		cid
+		city
+		cname
+		contact
+		contact_detail
+		ctype
+		district
+		enterprise_size
+		group
+		holding_type
+		id
+		is_connected_tx
+		is_gov_fin_customer
+		is_group_customer
+		legal_person_id
+		legal_person
+		major_class
+		middle_class
+		office_address
+		project
+		province
+		registered_address
+		small_class
+	}
+}}
+</t>
+  </si>
+  <si>
+    <t>通过项目类型对项目进行过滤</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForGetProjectByCondition.JSON</t>
+  </si>
+  <si>
+    <t>查看电站的逆变器信息</t>
+  </si>
+  <si>
+    <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") {
+	id
+	location
+	commissioning_date
+	state
+	power_station
+	Has_Device_Inverter {
+		site
+		pr
+		production
+		name
+		type
+		full_generation_hours
+	}
+}}</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForSiteDetails.JSON</t>
+  </si>
+  <si>
+    <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {
+	business_mgr
+	business_unit
+	charge_frequency
+	city
+	province
+	district
+	class_level
+	classification_level
+	credit_amount
+	detail_address
+	discount_ratio
+	expire_date
+	guarantee_type
+	id
+	is_manufacture_buy_back
+	is_manufacture_leasing
+	manufacture
+	no
+	status
+	name
+	risk_mgr
+	rent_type
+	invert_Customer(cond:"",order:"") {
+		actual_controller
+		category
+		cid
+		city
+		cname
+		contact
+		contact_detail
+		ctype
+		district
+		enterprise_size
+		group
+		holding_type
+		id
+		is_connected_tx
+		is_gov_fin_customer
+		is_group_customer
+		legal_person_id
+		legal_person
+		major_class
+		middle_class
+		office_address
+		project
+		province
+		registered_address
+		small_class
+	}
+	Restricted_By_Contract(cond:"",order:"")
+	{
+	  accumulated_amount
+	  charge_frequency
+	  contract_amount
+	  customer
+	  grant_loan_frequency
+	  id
+	  lease_balance
+	  lease_end_time
+	  lease_num
+	  lease_start_time
+	  lease_unit
+	  leasing_principal
+	  make_loan_day
+	  overdue_amount
+	  overdue_days
+	  overdue_interest
+	  overdue_principal
+	  payment_method
+	  project
+	}
+	Refer_To_Lease_Group(cond:"",order:"")
+	{
+	  asset_type
+	  count
+	  discount_ratio
+	  id
+	  lease_net_val
+	  lease_type
+	  lease_type_gb
+	  lease_type_yj
+	  nominal_cost
+	  project
+	  transfer_price
+	  unit_price
+	}
+}}</t>
   </si>
 </sst>
 </file>
@@ -739,18 +1193,18 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1"/>
-    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.5703125" style="1"/>
+    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1"/>
+    <col min="4" max="4" width="36.54296875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -776,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -798,7 +1252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -822,7 +1276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -846,7 +1300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -868,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -890,7 +1344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -912,7 +1366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -934,7 +1388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -956,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -978,7 +1432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1000,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1033,19 +1487,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.7265625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1085,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1165,7 +1619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1185,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1225,7 +1679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1245,7 +1699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -1265,7 +1719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1285,7 +1739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -1325,7 +1779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1365,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1385,7 +1839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -1405,7 +1859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1425,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1445,7 +1899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1465,7 +1919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1485,7 +1939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1505,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -1525,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -1545,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -1565,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1585,7 +2039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -1605,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -1625,7 +2079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
@@ -1645,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -1665,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -1685,7 +2139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -1705,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
@@ -1725,7 +2179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -1745,7 +2199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -1765,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
@@ -1785,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -1805,7 +2259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -1825,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -1845,7 +2299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -1865,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
@@ -1890,4 +2344,344 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52831BC6-0353-44A5-AF16-53FEEB981D2D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016205C-392A-4756-BA1F-C46FE02BB072}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00996915-EEF2-4680-8A3C-4155BADE3794}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACB25C-715F-46EA-8323-1EF68080F322}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A553E58-7867-4004-A3CD-42B74E09076D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153031D7-FC93-4481-A206-3DA244C3EADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960E6CC-5948-44DC-898B-0E74E03DDA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,6 +389,192 @@
   </si>
   <si>
     <t>queryString</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForLeaseDetails.JSON</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForLeaseList.JSON</t>
+  </si>
+  <si>
+    <t>{Lease(cond:"{project:{_eq:99}}", order:"") {
+	lease_type_gb
+	lending
+	lposition
+	invoice_no
+	project
+	lease_type_yj
+	brand_name
+	unit_price
+	serial_num
+	discount_ratio
+	transfer_price
+	lease_net_val
+	nominal_cost
+	supplier
+	asset_type
+	name
+	lease_type
+	position
+	id
+	purchase_time
+	status
+	lease_group
+	product_model
+	Refer_To_Power_Station(cond:"", order:"") {
+		id
+		Compose_Of_Site(cond:"", order:"") {
+			avg_annual_eq_hours
+			avg_irradiance
+			capacity
+			city
+			commissioning_date
+			grid_inject_production
+			id
+			irradiance
+			location
+			name
+			power_station
+			state
+			sys_engaged_date
+			type
+			voltage_degree
+		}
+	}
+}}</t>
+  </si>
+  <si>
+    <t>根据project id获取租赁物信息列表</t>
+  </si>
+  <si>
+    <t>获取指定项目的详细信息</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForProjectDetails.JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Contract(cond:"{project:{_eq:99}}", order:"") {
+	accumulated_amount
+	charge_frequency
+	contract_amount
+	customer
+	grant_loan_frequency
+	id
+	lease_balance
+	lease_end_time
+	lease_num
+	lease_start_time
+	lease_unit
+	leasing_principal
+	make_loan_day
+	overdue_amount
+	overdue_days
+	overdue_interest
+	overdue_principal
+	payment_method
+	project
+	invert_Project(cond:"", order:"") {
+		business_mgr
+		business_unit
+		charge_frequency
+		city
+		province
+		district
+		class_level
+		classification_level
+		credit_amount
+		detail_address
+		discount_ratio
+		expire_date
+		guarantee_type
+		id
+		is_manufacture_buy_back
+		is_manufacture_leasing
+		manufacture
+		no
+		status
+		name
+		risk_mgr
+		rent_type
+		Refer_To_Lease_Group(cond:"", order:"") {
+			asset_type
+			count
+			discount_ratio
+			id
+			lease_net_val
+			lease_type
+			lease_type_gb
+			lease_type_yj
+			nominal_cost
+			project
+			transfer_price
+			unit_price
+			Refer_To_Power_Station_Properties(cond:"", order:"") {
+				ps_type
+				structure
+				avg_annual_eq_hours
+				capacity
+			}
+		}
+	}
+	invert_Customer(cond:"", order:"") {
+		actual_controller
+		category
+		cid
+		city
+		cname
+		contact
+		contact_detail
+		ctype
+		district
+		enterprise_size
+		group
+		holding_type
+		id
+		is_connected_tx
+		is_gov_fin_customer
+		is_group_customer
+		legal_person_id
+		legal_person
+		major_class
+		middle_class
+		office_address
+		project
+		province
+		registered_address
+		small_class
+	}
+}}
+</t>
+  </si>
+  <si>
+    <t>通过项目类型对项目进行过滤</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForGetProjectByCondition.JSON</t>
+  </si>
+  <si>
+    <t>查看电站的逆变器信息</t>
+  </si>
+  <si>
+    <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") {
+	id
+	location
+	commissioning_date
+	state
+	power_station
+	Has_Device_Inverter {
+		site
+		pr
+		production
+		name
+		type
+		full_generation_hours
+	}
+}}</t>
+  </si>
+  <si>
+    <t>JasonModelSchemaForSiteDetails.JSON</t>
   </si>
   <si>
     <t>{Lease(cond:"{id:{_eq:667}}", order:"") {
@@ -489,8 +675,7 @@
 	}
 	Refer_To_Power_Station( cond:"", order:"") {
 		id
-		Compose_Of_Site( cond:"", order:"") 
-		{
+		Compose_Of_Site( cond:"", order:"") {
 			avg_annual_eq_hours
 			avg_irradiance
 			capacity
@@ -555,192 +740,6 @@
 }</t>
   </si>
   <si>
-    <t>JasonModelSchemaForLeaseDetails.JSON</t>
-  </si>
-  <si>
-    <t>JasonModelSchemaForLeaseList.JSON</t>
-  </si>
-  <si>
-    <t>{Lease(cond:"{project:{_eq:99}}", order:"") {
-	lease_type_gb
-	lending
-	lposition
-	invoice_no
-	project
-	lease_type_yj
-	brand_name
-	unit_price
-	serial_num
-	discount_ratio
-	transfer_price
-	lease_net_val
-	nominal_cost
-	supplier
-	asset_type
-	name
-	lease_type
-	position
-	id
-	purchase_time
-	status
-	lease_group
-	product_model
-	Refer_To_Power_Station(cond:"", order:"") {
-		id
-		Compose_Of_Site(cond:"", order:"") {
-			avg_annual_eq_hours
-			avg_irradiance
-			capacity
-			city
-			commissioning_date
-			grid_inject_production
-			id
-			irradiance
-			location
-			name
-			power_station
-			state
-			sys_engaged_date
-			type
-			voltage_degree
-		}
-	}
-}}</t>
-  </si>
-  <si>
-    <t>根据project id获取租赁物信息列表</t>
-  </si>
-  <si>
-    <t>获取指定项目的详细信息</t>
-  </si>
-  <si>
-    <t>JasonModelSchemaForProjectDetails.JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{Contract(cond:"{project:{_eq:99}}", order:"") {
-	accumulated_amount
-	charge_frequency
-	contract_amount
-	customer
-	grant_loan_frequency
-	id
-	lease_balance
-	lease_end_time
-	lease_num
-	lease_start_time
-	lease_unit
-	leasing_principal
-	make_loan_day
-	overdue_amount
-	overdue_days
-	overdue_interest
-	overdue_principal
-	payment_method
-	project
-	invert_Project(cond:"", order:"") {
-		business_mgr
-		business_unit
-		charge_frequency
-		city
-		province
-		district
-		class_level
-		classification_level
-		credit_amount
-		detail_address
-		discount_ratio
-		expire_date
-		guarantee_type
-		id
-		is_manufacture_buy_back
-		is_manufacture_leasing
-		manufacture
-		no
-		status
-		name
-		risk_mgr
-		rent_type
-		Refer_To_Lease_Group(cond:"", order:"") {
-			asset_type
-			count
-			discount_ratio
-			id
-			lease_net_val
-			lease_type
-			lease_type_gb
-			lease_type_yj
-			nominal_cost
-			project
-			transfer_price
-			unit_price
-			Refer_To_Power_Station_Properties(cond:"", order:"") {
-				ps_type
-				structure
-				avg_annual_eq_hours
-				capacity
-			}
-		}
-	}
-	invert_Customer(cond:"", order:"") {
-		actual_controller
-		category
-		cid
-		city
-		cname
-		contact
-		contact_detail
-		ctype
-		district
-		enterprise_size
-		group
-		holding_type
-		id
-		is_connected_tx
-		is_gov_fin_customer
-		is_group_customer
-		legal_person_id
-		legal_person
-		major_class
-		middle_class
-		office_address
-		project
-		province
-		registered_address
-		small_class
-	}
-}}
-</t>
-  </si>
-  <si>
-    <t>通过项目类型对项目进行过滤</t>
-  </si>
-  <si>
-    <t>JasonModelSchemaForGetProjectByCondition.JSON</t>
-  </si>
-  <si>
-    <t>查看电站的逆变器信息</t>
-  </si>
-  <si>
-    <t>{Site(cond:"{id:{_eq:\"P000000666\"}}",order:"") {
-	id
-	location
-	commissioning_date
-	state
-	power_station
-	Has_Device_Inverter {
-		site
-		pr
-		production
-		name
-		type
-		full_generation_hours
-	}
-}}</t>
-  </si>
-  <si>
-    <t>JasonModelSchemaForSiteDetails.JSON</t>
-  </si>
-  <si>
     <t>{Project(cond:"{status:{_eq:\"online\"},Lease_Group:{lease_type:{_eq:\"2\"}}}",order:"") {
 	business_mgr
 	business_unit
@@ -791,8 +790,7 @@
 		registered_address
 		small_class
 	}
-	Restricted_By_Contract(cond:"",order:"")
-	{
+	Restricted_By_Contract(cond:"",order:"") {
 	  accumulated_amount
 	  charge_frequency
 	  contract_amount
@@ -813,8 +811,7 @@
 	  payment_method
 	  project
 	}
-	Refer_To_Lease_Group(cond:"",order:"")
-	{
+	Refer_To_Lease_Group(cond:"",order:"") {
 	  asset_type
 	  count
 	  discount_ratio
@@ -2393,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -2419,7 +2416,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2455,16 +2452,16 @@
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -2523,16 +2520,16 @@
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -2591,7 +2588,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2600,7 +2597,7 @@
         <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -2659,16 +2656,16 @@
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960E6CC-5948-44DC-898B-0E74E03DDA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE17ED6-9DF2-4CCE-8E23-75A0EF6EF44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="getProjectDetails" sheetId="6" r:id="rId5"/>
     <sheet name="getProjectByCondition" sheetId="8" r:id="rId6"/>
     <sheet name="getSiteDetails" sheetId="9" r:id="rId7"/>
+    <sheet name="getSchemaWithAuth" sheetId="10" r:id="rId8"/>
+    <sheet name="getAllCacheStatsWithAuth" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
   <si>
     <t>description</t>
   </si>
@@ -827,6 +829,69 @@
 	}
 }}</t>
   </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>clientSecret</t>
+  </si>
+  <si>
+    <t>grantType</t>
+  </si>
+  <si>
+    <t>accessTokenUrl</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>1c481daa-c881-4ab6-803a-f3808ebd2548</t>
+  </si>
+  <si>
+    <t>Client Credentials</t>
+  </si>
+  <si>
+    <t>http://140.231.89.106:30701/auth/realms/Test/protocol/openid-connect/token</t>
+  </si>
+  <si>
+    <t>JinZu-App client authentication-Test-1</t>
+  </si>
+  <si>
+    <t>JinZu-App client authentication-Test-2</t>
+  </si>
+  <si>
+    <t>JinZu-App client authentication-Test-3</t>
+  </si>
+  <si>
+    <t>good request, correct OAuth2.0,data retrieved</t>
+  </si>
+  <si>
+    <t>bad request, wrong clientId/clientSecret</t>
+  </si>
+  <si>
+    <t>bad request,No Auth</t>
+  </si>
+  <si>
+    <t>tybk</t>
+  </si>
+  <si>
+    <t>b10d0439-07e2-4dc0-9a2d-2fd33a9e399d</t>
+  </si>
+  <si>
+    <t>JinZu-App client authentication-Test-4</t>
+  </si>
+  <si>
+    <t>JinZu-App client authentication-Test-5</t>
+  </si>
+  <si>
+    <t>JinZu-App client authentication-Test-6</t>
+  </si>
+  <si>
+    <t>good request,No Auth</t>
+  </si>
+  <si>
+    <t>good request, different clientId/clientSecret</t>
+  </si>
 </sst>
 </file>
 
@@ -895,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -906,6 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,15 +1256,15 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="1"/>
-    <col min="4" max="4" width="36.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.54296875" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1"/>
+    <col min="4" max="4" width="36.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,19 +1550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D1:D1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.7265625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.77734375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1516,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1556,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1576,7 +1642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1596,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1616,7 +1682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1636,7 +1702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1656,7 +1722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1676,7 +1742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1696,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -1716,7 +1782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1736,7 +1802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1756,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -1816,7 +1882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1856,7 +1922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -1876,7 +1942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1916,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -1936,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1956,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -1996,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -2016,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2036,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2056,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -2076,7 +2142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
@@ -2351,15 +2417,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2382,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
@@ -2419,15 +2485,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
@@ -2487,15 +2553,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
@@ -2551,19 +2617,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACB25C-715F-46EA-8323-1EF68080F322}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
@@ -2620,18 +2686,18 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="6" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -2681,4 +2747,224 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9467BD-153D-41EA-A440-BE3AFBA58084}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED7702-9547-4AEE-82DC-811C1B12C606}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE17ED6-9DF2-4CCE-8E23-75A0EF6EF44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949EBA3B-27AE-4D7C-BB71-4351F8BC048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-14570" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
     <sheet name="getDataGraphQL" sheetId="3" r:id="rId2"/>
-    <sheet name="getLeaseDetails" sheetId="4" r:id="rId3"/>
-    <sheet name="getLeaseList" sheetId="5" r:id="rId4"/>
-    <sheet name="getProjectDetails" sheetId="6" r:id="rId5"/>
-    <sheet name="getProjectByCondition" sheetId="8" r:id="rId6"/>
-    <sheet name="getSiteDetails" sheetId="9" r:id="rId7"/>
-    <sheet name="getSchemaWithAuth" sheetId="10" r:id="rId8"/>
-    <sheet name="getAllCacheStatsWithAuth" sheetId="11" r:id="rId9"/>
+    <sheet name="getDataGraphQLHttps" sheetId="12" r:id="rId3"/>
+    <sheet name="getLeaseDetails" sheetId="4" r:id="rId4"/>
+    <sheet name="getLeaseList" sheetId="5" r:id="rId5"/>
+    <sheet name="getProjectDetails" sheetId="6" r:id="rId6"/>
+    <sheet name="getProjectByCondition" sheetId="8" r:id="rId7"/>
+    <sheet name="getSiteDetails" sheetId="9" r:id="rId8"/>
+    <sheet name="getSchemaWithAuth" sheetId="10" r:id="rId9"/>
+    <sheet name="getAllCacheStatsWithAuth" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="154">
   <si>
     <t>description</t>
   </si>
@@ -897,25 +898,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1259,7 +1267,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" style="1"/>
@@ -1267,7 +1275,7 @@
     <col min="5" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1315,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1385,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1407,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1429,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1451,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -1473,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1495,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1517,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1546,1218 +1554,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F42"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED7702-9547-4AEE-82DC-811C1B12C606}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.77734375" style="6" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3">
-        <v>200</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3">
-        <v>200</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>200</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3">
-        <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3">
-        <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3">
-        <v>200</v>
-      </c>
-      <c r="E11" s="3">
-        <v>101302</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3">
-        <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>101403</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3">
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3">
-        <v>200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>101301</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="3">
-        <v>200</v>
-      </c>
-      <c r="E19" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3">
-        <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="3">
-        <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="3">
-        <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="3">
-        <v>200</v>
-      </c>
-      <c r="E25" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="3">
-        <v>200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="3">
-        <v>200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="3">
-        <v>200</v>
-      </c>
-      <c r="E28" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="3">
-        <v>200</v>
-      </c>
-      <c r="E29" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="3">
-        <v>200</v>
-      </c>
-      <c r="E30" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="3">
-        <v>200</v>
-      </c>
-      <c r="E31" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="3">
-        <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="3">
-        <v>200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="3">
-        <v>200</v>
-      </c>
-      <c r="E34" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="3">
-        <v>200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="3">
-        <v>200</v>
-      </c>
-      <c r="E36" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="3">
-        <v>200</v>
-      </c>
-      <c r="E37" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="3">
-        <v>200</v>
-      </c>
-      <c r="E38" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="3">
-        <v>200</v>
-      </c>
-      <c r="E39" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="3">
-        <v>200</v>
-      </c>
-      <c r="E40" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="3">
-        <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="3">
-        <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52831BC6-0353-44A5-AF16-53FEEB981D2D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016205C-392A-4756-BA1F-C46FE02BB072}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00996915-EEF2-4680-8A3C-4155BADE3794}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACB25C-715F-46EA-8323-1EF68080F322}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A553E58-7867-4004-A3CD-42B74E09076D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9467BD-153D-41EA-A440-BE3AFBA58084}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -2768,7 +1573,7 @@
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2791,9 +1596,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>144</v>
@@ -2814,12 +1619,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>147</v>
@@ -2833,23 +1638,23 @@
       <c r="F3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="8">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>403</v>
+      <c r="G4" s="3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2859,15 +1664,2462 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.77734375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101302</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3">
+        <v>200</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="3">
+        <v>200</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3">
+        <v>200</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="3">
+        <v>200</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3">
+        <v>200</v>
+      </c>
+      <c r="E38" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3">
+        <v>200</v>
+      </c>
+      <c r="E39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="3">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B330BDB3-5BDD-4EB2-B3EF-627B0ED78294}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="110.44140625" customWidth="1"/>
+    <col min="16" max="16" width="51.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>101302</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>101403</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>101301</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3">
+        <v>200</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3">
+        <v>200</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3">
+        <v>200</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="3">
+        <v>200</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3">
+        <v>200</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3">
+        <v>200</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="3">
+        <v>200</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3">
+        <v>200</v>
+      </c>
+      <c r="E38" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3">
+        <v>200</v>
+      </c>
+      <c r="E39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="3">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52831BC6-0353-44A5-AF16-53FEEB981D2D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5016205C-392A-4756-BA1F-C46FE02BB072}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00996915-EEF2-4680-8A3C-4155BADE3794}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FACB25C-715F-46EA-8323-1EF68080F322}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A553E58-7867-4004-A3CD-42B74E09076D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED7702-9547-4AEE-82DC-811C1B12C606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9467BD-153D-41EA-A440-BE3AFBA58084}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -2878,7 +4130,7 @@
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2901,9 +4153,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>144</v>
@@ -2924,12 +4176,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>147</v>
@@ -2943,23 +4195,23 @@
       <c r="F3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="3">
-        <v>200</v>
+      <c r="G4" s="8">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949EBA3B-27AE-4D7C-BB71-4351F8BC048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FEF183-C67E-40C1-9BAB-19A41F21A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-14570" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -898,30 +898,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1267,7 +1267,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" style="1"/>
@@ -1275,7 +1275,7 @@
     <col min="5" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1558,11 +1558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED7702-9547-4AEE-82DC-811C1B12C606}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -1573,7 +1573,7 @@
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -1672,7 +1672,7 @@
       <selection activeCell="A2" sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="90.77734375" style="6" customWidth="1"/>
@@ -1680,7 +1680,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.05" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.05" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
@@ -2531,17 +2531,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B330BDB3-5BDD-4EB2-B3EF-627B0ED78294}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="8" max="8" width="110.44140625" customWidth="1"/>
     <col min="16" max="16" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="409.6">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
@@ -3774,7 +3774,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3782,7 +3782,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
@@ -3843,7 +3843,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3851,7 +3851,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
@@ -3912,7 +3912,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3920,7 +3920,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
@@ -3981,7 +3981,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3989,7 +3989,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
@@ -4050,7 +4050,7 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -4058,7 +4058,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -4116,10 +4116,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -4130,7 +4130,7 @@
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>143</v>
       </c>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FEF183-C67E-40C1-9BAB-19A41F21A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E25796-9869-4AE6-84DF-53FE9C25D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="588" windowWidth="21960" windowHeight="12408" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="getSiteDetails" sheetId="9" r:id="rId8"/>
     <sheet name="getSchemaWithAuth" sheetId="10" r:id="rId9"/>
     <sheet name="getAllCacheStatsWithAuth" sheetId="11" r:id="rId10"/>
+    <sheet name="getAllCacheNames" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="159">
   <si>
     <t>description</t>
   </si>
@@ -893,35 +894,61 @@
   <si>
     <t>good request, different clientId/clientSecret</t>
   </si>
+  <si>
+    <t>Operate success.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    "subscriptionCache",
+    "entityDataCache",
+    "graphQLSchemaCache",
+    "kgCache",
+    "connectorMetaDataCache"
+  ]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get all cache names</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JinZu-ApiEngine-CacheController-Test-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rspData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1267,7 +1294,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" style="1"/>
@@ -1275,7 +1302,7 @@
     <col min="5" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1323,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1371,7 +1398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1393,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1415,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1437,7 +1464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1459,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -1481,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1503,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1525,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1558,11 +1585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED7702-9547-4AEE-82DC-811C1B12C606}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -1573,7 +1600,7 @@
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
@@ -1619,7 +1646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -1642,7 +1669,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -1659,6 +1686,69 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D302976-6940-4270-B1B7-132C4D0E2581}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1672,7 +1762,7 @@
       <selection activeCell="A2" sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="90.77734375" style="6" customWidth="1"/>
@@ -1680,7 +1770,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +1810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.05" customHeight="1">
+    <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1760,7 +1850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.05" customHeight="1">
+    <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -1820,7 +1910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -1840,7 +1930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1880,7 +1970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -1900,7 +1990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +2010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +2030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -1960,7 +2050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -2000,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -2020,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -2040,7 +2130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -2060,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -2080,7 +2170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -2100,7 +2190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -2120,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -2140,7 +2230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -2160,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -2180,7 +2270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -2200,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2220,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2240,7 +2330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -2260,7 +2350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
@@ -2280,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -2300,7 +2390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -2320,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -2340,7 +2430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
@@ -2360,7 +2450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -2380,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -2400,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
@@ -2420,7 +2510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -2440,7 +2530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -2460,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -2480,7 +2570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -2500,7 +2590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
@@ -2535,13 +2625,13 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="110.44140625" customWidth="1"/>
     <col min="16" max="16" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2660,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2599,7 +2689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6">
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -2657,7 +2747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6">
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -2686,7 +2776,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2715,7 +2805,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2744,7 +2834,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -2773,7 +2863,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -2802,7 +2892,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2831,7 +2921,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -2860,7 +2950,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -2889,7 +2979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -2918,7 +3008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2947,7 +3037,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +3066,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -3005,7 +3095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -3034,7 +3124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -3063,7 +3153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
@@ -3092,7 +3182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -3121,7 +3211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -3150,7 +3240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3179,7 +3269,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3208,7 +3298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -3237,7 +3327,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -3266,7 +3356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -3295,7 +3385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3414,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -3353,7 +3443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
@@ -3382,7 +3472,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
@@ -3411,7 +3501,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3440,7 +3530,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
@@ -3469,7 +3559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -3498,7 +3588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
@@ -3527,7 +3617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -3556,7 +3646,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>101</v>
       </c>
@@ -3585,7 +3675,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>102</v>
       </c>
@@ -3614,7 +3704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -3643,7 +3733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>104</v>
       </c>
@@ -3672,7 +3762,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -3701,7 +3791,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
@@ -3730,7 +3820,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
@@ -3774,7 +3864,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3782,7 +3872,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3805,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
@@ -3843,7 +3933,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3851,7 +3941,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3874,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
@@ -3912,7 +4002,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3920,7 +4010,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3943,7 +4033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
@@ -3981,7 +4071,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -3989,7 +4079,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4012,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
@@ -4050,7 +4140,7 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
@@ -4058,7 +4148,7 @@
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1">
+    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4081,7 +4171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -4119,7 +4209,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -4130,7 +4220,7 @@
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
@@ -4176,7 +4266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
@@ -4199,7 +4289,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>143</v>
       </c>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E25796-9869-4AE6-84DF-53FE9C25D7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FB2E31-1DBC-4317-BEC5-19E66F39AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="588" windowWidth="21960" windowHeight="12408" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="1188" windowWidth="21960" windowHeight="12408" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="getSchemaWithAuth" sheetId="10" r:id="rId9"/>
     <sheet name="getAllCacheStatsWithAuth" sheetId="11" r:id="rId10"/>
     <sheet name="getAllCacheNames" sheetId="13" r:id="rId11"/>
+    <sheet name="kgCache" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="164">
   <si>
     <t>description</t>
   </si>
@@ -918,6 +919,37 @@
   </si>
   <si>
     <t>rspData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kgCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": "1234",
+        "label": "testEntity_kgcache",
+        "properties": {
+            "metadata_node_type": "entity",
+            "metadata_node_pk": "id",
+            "id": "String",
+            "name": "String"
+        }
+    }
+]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>check kg Cache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createEntityBody</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1695,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D302976-6940-4270-B1B7-132C4D0E2581}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1744,6 +1776,74 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5EFFF1-874F-47A1-B739-DA24352F8DE6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="3" max="4" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>154</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FB2E31-1DBC-4317-BEC5-19E66F39AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494A71FE-4DBC-478D-8D64-3E17C44B3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="1188" windowWidth="21960" windowHeight="12408" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="2808" windowWidth="21960" windowHeight="12408" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -900,16 +900,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[
-    "subscriptionCache",
-    "entityDataCache",
-    "graphQLSchemaCache",
-    "kgCache",
-    "connectorMetaDataCache"
-  ]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>get all cache names</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -950,6 +940,16 @@
   </si>
   <si>
     <t>createEntityBody</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+	"entityDataCache",
+	"subscriptionCache",
+	"graphQLSchemaCache",
+	"connectorMetaDataCache",
+	"kgCache"
+]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1727,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D302976-6940-4270-B1B7-132C4D0E2581}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="2" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -1790,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5EFFF1-874F-47A1-B739-DA24352F8DE6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1826,16 +1826,16 @@
     </row>
     <row r="2" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494A71FE-4DBC-478D-8D64-3E17C44B3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0EB55-F813-474A-8FF5-93111CA11813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="2808" windowWidth="21960" windowHeight="12408" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="163">
   <si>
     <t>description</t>
   </si>
@@ -396,57 +396,7 @@
     <t>queryString</t>
   </si>
   <si>
-    <t>JasonModelSchemaForLeaseDetails.JSON</t>
-  </si>
-  <si>
     <t>JasonModelSchemaForLeaseList.JSON</t>
-  </si>
-  <si>
-    <t>{Lease(cond:"{project:{_eq:99}}", order:"") {
-	lease_type_gb
-	lending
-	lposition
-	invoice_no
-	project
-	lease_type_yj
-	brand_name
-	unit_price
-	serial_num
-	discount_ratio
-	transfer_price
-	lease_net_val
-	nominal_cost
-	supplier
-	asset_type
-	name
-	lease_type
-	position
-	id
-	purchase_time
-	status
-	lease_group
-	product_model
-	Refer_To_Power_Station(cond:"", order:"") {
-		id
-		Compose_Of_Site(cond:"", order:"") {
-			avg_annual_eq_hours
-			avg_irradiance
-			capacity
-			city
-			commissioning_date
-			grid_inject_production
-			id
-			irradiance
-			location
-			name
-			power_station
-			state
-			sys_engaged_date
-			type
-			voltage_degree
-		}
-	}
-}}</t>
   </si>
   <si>
     <t>根据project id获取租赁物信息列表</t>
@@ -950,6 +900,54 @@
 	"connectorMetaDataCache",
 	"kgCache"
 ]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Lease(cond:"{project:{_eq:99}}", order:"") {
+	lease_type_gb
+	lending
+	lposition
+	invoice_no
+	project
+	lease_type_yj
+	brand_name
+	unit_price
+	serial_num
+	discount_ratio
+	transfer_price
+	lease_net_val
+	nominal_cost
+	supplier
+	asset_type
+	name
+	lease_type
+	position
+	id
+	purchase_time
+	status
+	lease_group
+	product_model
+	Refer_To_Power_Station(cond:"", order:"") {
+		id
+		Compose_Of_Site(cond:"", order:"") {
+			avg_annual_eq_hours
+			avg_irradiance
+			capacity
+			city
+			commissioning_date
+			grid_inject_production
+			id
+			irradiance
+			location
+			name
+			power_station
+			state
+			sys_engaged_date
+			type
+			voltage_degree
+		}
+	}
+}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1640,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1657,22 +1655,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="G2" s="3">
         <v>200</v>
@@ -1680,22 +1678,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="3">
         <v>200</v>
@@ -1703,10 +1701,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1727,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D302976-6940-4270-B1B7-132C4D0E2581}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1761,13 +1759,13 @@
     </row>
     <row r="2" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -1776,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1809,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1826,16 +1824,16 @@
     </row>
     <row r="2" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -1844,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2751,13 +2749,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2780,13 +2778,13 @@
         <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2809,13 +2807,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
@@ -2838,13 +2836,13 @@
         <v>9</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.25">
@@ -2867,13 +2865,13 @@
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2896,13 +2894,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2925,13 +2923,13 @@
         <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2954,13 +2952,13 @@
         <v>9</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2983,13 +2981,13 @@
         <v>51</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3012,13 +3010,13 @@
         <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,13 +3039,13 @@
         <v>23</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3070,13 +3068,13 @@
         <v>59</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,13 +3097,13 @@
         <v>9</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3128,13 +3126,13 @@
         <v>9</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3157,13 +3155,13 @@
         <v>9</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3186,13 +3184,13 @@
         <v>9</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3215,13 +3213,13 @@
         <v>9</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3244,13 +3242,13 @@
         <v>66</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3273,13 +3271,13 @@
         <v>9</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3302,13 +3300,13 @@
         <v>9</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3331,13 +3329,13 @@
         <v>9</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3360,13 +3358,13 @@
         <v>9</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,13 +3387,13 @@
         <v>9</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3418,13 +3416,13 @@
         <v>9</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3447,13 +3445,13 @@
         <v>9</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3476,13 +3474,13 @@
         <v>9</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3505,13 +3503,13 @@
         <v>9</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3534,13 +3532,13 @@
         <v>9</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,13 +3561,13 @@
         <v>9</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3592,13 +3590,13 @@
         <v>9</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3621,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3650,13 +3648,13 @@
         <v>9</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,13 +3677,13 @@
         <v>9</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,13 +3764,13 @@
         <v>9</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3795,13 +3793,13 @@
         <v>9</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3824,13 +3822,13 @@
         <v>9</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3853,13 +3851,13 @@
         <v>9</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3882,13 +3880,13 @@
         <v>9</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3911,13 +3909,13 @@
         <v>9</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3940,13 +3938,13 @@
         <v>9</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H42" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3958,21 +3956,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52831BC6-0353-44A5-AF16-53FEEB981D2D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3983,19 +3980,16 @@
         <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
@@ -4003,18 +3997,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
       </c>
       <c r="E2" s="3">
-        <v>200</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4030,14 +4021,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
     <col min="6" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4066,16 +4057,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -4135,16 +4126,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -4204,16 +4195,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -4273,16 +4264,16 @@
     </row>
     <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
@@ -4328,16 +4319,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -4345,22 +4336,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="G2" s="3">
         <v>200</v>
@@ -4368,22 +4359,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="8">
         <v>403</v>
@@ -4391,10 +4382,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0EB55-F813-474A-8FF5-93111CA11813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C388996-EB85-4C07-A834-82FA670C965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="164">
   <si>
     <t>description</t>
   </si>
@@ -949,6 +949,10 @@
 	}
 }}</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106602 exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1856,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2109,7 @@
         <v>101403</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52831BC6-0353-44A5-AF16-53FEEB981D2D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C388996-EB85-4C07-A834-82FA670C965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8DD5DD-89EB-49FF-8C33-254452F6D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="163">
   <si>
     <t>description</t>
   </si>
@@ -949,10 +949,6 @@
 	}
 }}</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connector execution fail with code: 106602 exception</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1858,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2094,33 +2090,33 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>101403</v>
+        <v>100000</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>200</v>
@@ -2134,13 +2130,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -2160,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
@@ -2174,13 +2170,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="3">
         <v>200</v>
@@ -2194,53 +2190,53 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3">
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100000</v>
+        <v>101301</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
         <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>101301</v>
+        <v>100000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3">
         <v>200</v>
@@ -2254,13 +2250,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3">
         <v>200</v>
@@ -2274,13 +2270,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3">
         <v>200</v>
@@ -2294,13 +2290,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3">
         <v>200</v>
@@ -2314,13 +2310,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3">
         <v>200</v>
@@ -2334,13 +2330,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3">
         <v>200</v>
@@ -2354,13 +2350,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3">
         <v>200</v>
@@ -2374,13 +2370,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3">
         <v>200</v>
@@ -2394,13 +2390,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3">
         <v>200</v>
@@ -2414,13 +2410,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3">
         <v>200</v>
@@ -2434,13 +2430,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="3">
         <v>200</v>
@@ -2454,13 +2450,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="3">
         <v>200</v>
@@ -2474,13 +2470,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3">
         <v>200</v>
@@ -2494,13 +2490,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3">
         <v>200</v>
@@ -2514,13 +2510,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D33" s="3">
         <v>200</v>
@@ -2534,13 +2530,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D34" s="3">
         <v>200</v>
@@ -2554,13 +2550,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="3">
         <v>200</v>
@@ -2574,13 +2570,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3">
         <v>200</v>
@@ -2594,13 +2590,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D37" s="3">
         <v>200</v>
@@ -2614,13 +2610,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="3">
         <v>200</v>
@@ -2634,13 +2630,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3">
         <v>200</v>
@@ -2654,13 +2650,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D40" s="3">
         <v>200</v>
@@ -2674,13 +2670,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" s="3">
         <v>200</v>
@@ -2689,26 +2685,6 @@
         <v>100000</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="3">
-        <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F42" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8DD5DD-89EB-49FF-8C33-254452F6D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF808FBB-C72F-47B7-994F-9093C2A64236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -893,16 +893,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[
-	"entityDataCache",
-	"subscriptionCache",
-	"graphQLSchemaCache",
-	"connectorMetaDataCache",
-	"kgCache"
-]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{Lease(cond:"{project:{_eq:99}}", order:"") {
 	lease_type_gb
 	lending
@@ -948,6 +938,17 @@
 		}
 	}
 }}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+	"entityDataCache",
+	"subscriptionCache",
+	"licenseConfigEncrypted",
+	"graphQLSchemaCache",
+	"connectorMetaDataCache",
+	"kgCache"
+]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1725,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D302976-6940-4270-B1B7-132C4D0E2581}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>154</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="3">
         <v>200</v>
@@ -1856,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -4043,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>119</v>

--- a/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF808FBB-C72F-47B7-994F-9093C2A64236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64FF193-FF7A-4033-81A3-D4343C0F2CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5556" yWindow="3756" windowWidth="17280" windowHeight="10044" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataEntities" sheetId="2" r:id="rId1"/>
@@ -943,8 +943,8 @@
   <si>
     <t>[
 	"entityDataCache",
+	"licenseConfigEncrypted",
 	"subscriptionCache",
-	"licenseConfigEncrypted",
 	"graphQLSchemaCache",
 	"connectorMetaDataCache",
 	"kgCache"
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
